--- a/DB Scripts/Components Detail.xlsx
+++ b/DB Scripts/Components Detail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="10" r:id="rId1"/>
@@ -765,9 +765,6 @@
     <t>CONSTRAINT</t>
   </si>
   <si>
-    <t>INJECTIONNO</t>
-  </si>
-  <si>
     <t>NEXTTIME</t>
   </si>
   <si>
@@ -976,6 +973,9 @@
   </si>
   <si>
     <t>NightRegistered &lt;= LimitNight</t>
+  </si>
+  <si>
+    <t>INJNO</t>
   </si>
 </sst>
 </file>
@@ -1496,7 +1496,7 @@
         <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1533,43 +1533,43 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1655,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1668,16 +1668,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1690,15 +1690,15 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1714,27 +1714,27 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s">
         <v>115</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" t="s">
         <v>116</v>
       </c>
-      <c r="C9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" t="s">
-        <v>117</v>
-      </c>
       <c r="H9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1742,19 +1742,19 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10">
         <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1762,7 +1762,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11">
         <v>28</v>
@@ -1771,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1782,7 +1782,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12">
         <v>28</v>
@@ -1791,10 +1791,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1802,7 +1802,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13">
         <v>90</v>
@@ -1811,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1822,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14">
         <v>90</v>
@@ -1831,10 +1831,10 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1842,19 +1842,19 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15">
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1862,7 +1862,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16">
         <v>28</v>
@@ -1871,10 +1871,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1882,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="6">
         <v>90</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1902,7 +1902,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C18">
         <v>90</v>
@@ -1911,10 +1911,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1922,7 +1922,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C19">
         <v>90</v>
@@ -1931,10 +1931,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1942,16 +1942,16 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20">
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1959,7 +1959,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C21">
         <v>28</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1976,7 +1976,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C22">
         <v>90</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1993,16 +1993,16 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C23">
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2010,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C24">
         <v>28</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2027,7 +2027,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C25">
         <v>28</v>
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2044,7 +2044,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C26">
         <v>90</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2061,7 +2061,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C27">
         <v>90</v>
@@ -2070,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2078,16 +2078,16 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C28">
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2095,7 +2095,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2112,7 +2112,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C30">
         <v>28</v>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2129,7 +2129,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C31">
         <v>90</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2146,7 +2146,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C32">
         <v>90</v>
@@ -2155,11 +2155,12 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2259,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2421,22 +2422,22 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2444,28 +2445,28 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C19" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C19" s="7" t="s">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C20" s="7" t="s">
+    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C21" s="8" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="C21" s="8" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2499,7 +2500,7 @@
         <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2562,22 +2563,22 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2585,7 +2586,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2600,7 +2601,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2616,7 +2617,7 @@
         <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2661,13 +2662,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2686,39 +2687,39 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2726,10 +2727,10 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2759,7 +2760,7 @@
         <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2853,22 +2854,22 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2876,15 +2877,15 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" t="s">
         <v>170</v>
-      </c>
-      <c r="F11" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2897,7 +2898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -2919,10 +2920,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2965,13 +2966,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3053,22 +3054,22 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3076,29 +3077,29 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" t="s">
         <v>178</v>
-      </c>
-      <c r="D16" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3383,6 +3384,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100A30F3884CD43244294355762AE14FDC0" ma:contentTypeVersion="13" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="d6abdbf5296efb927e779bc42333b79d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c8b53866-fdfd-416a-aee2-e50c3ae941dd" xmlns:ns4="9d433cf1-fba1-428a-9634-baf48b90bf9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cbc3d42f92fe2e49d2b946bcae330cb" ns3:_="" ns4:_="">
     <xsd:import namespace="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
@@ -3605,22 +3621,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A7B083-9D0F-4795-94A6-C1128A2A5DD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3637,29 +3663,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DB Scripts/Components Detail.xlsx
+++ b/DB Scripts/Components Detail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="10" r:id="rId1"/>
@@ -429,7 +429,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="189">
   <si>
     <t>PERSON</t>
   </si>
@@ -976,6 +976,27 @@
   </si>
   <si>
     <t>INJNO</t>
+  </si>
+  <si>
+    <t>20520418 - Dang Nghiep Cuong</t>
+  </si>
+  <si>
+    <t>Từ tổ chức nào</t>
+  </si>
+  <si>
+    <t>ID thông báo/bài viết</t>
+  </si>
+  <si>
+    <t>Tiêu đề</t>
+  </si>
+  <si>
+    <t>Nội dung</t>
+  </si>
+  <si>
+    <t>Ngày đăng</t>
+  </si>
+  <si>
+    <t>Hình ảnh đính kèm</t>
   </si>
 </sst>
 </file>
@@ -1580,10 +1601,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,56 +1613,85 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>60</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>103</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1655,8 +1705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,18 +1723,18 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2743,8 +2793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2899,7 +2949,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2914,6 +2964,9 @@
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="B1" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3114,7 +3167,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3127,6 +3180,9 @@
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="B1" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -3217,7 +3273,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3230,6 +3286,9 @@
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="B1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -3288,7 +3347,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3301,6 +3360,9 @@
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="B1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -3384,21 +3446,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100A30F3884CD43244294355762AE14FDC0" ma:contentTypeVersion="13" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="d6abdbf5296efb927e779bc42333b79d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c8b53866-fdfd-416a-aee2-e50c3ae941dd" xmlns:ns4="9d433cf1-fba1-428a-9634-baf48b90bf9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cbc3d42f92fe2e49d2b946bcae330cb" ns3:_="" ns4:_="">
     <xsd:import namespace="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
@@ -3621,32 +3668,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A7B083-9D0F-4795-94A6-C1128A2A5DD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3663,4 +3700,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DB Scripts/Components Detail.xlsx
+++ b/DB Scripts/Components Detail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="10" r:id="rId1"/>
@@ -750,9 +750,6 @@
     <t>varchar2(200)</t>
   </si>
   <si>
-    <t>FROM</t>
-  </si>
-  <si>
     <t>varchar2(16)</t>
   </si>
   <si>
@@ -997,6 +994,9 @@
   </si>
   <si>
     <t>Hình ảnh đính kèm</t>
+  </si>
+  <si>
+    <t>blob</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1517,7 @@
         <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1554,43 +1554,43 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1604,7 +1604,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,10 +1615,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1629,18 +1629,18 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1651,7 +1651,7 @@
         <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1659,10 +1659,10 @@
         <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1673,7 +1673,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1681,10 +1681,10 @@
         <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="C7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1719,15 +1719,15 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1740,15 +1740,15 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1764,27 +1764,27 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" t="s">
         <v>114</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" t="s">
         <v>115</v>
       </c>
-      <c r="C9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" t="s">
-        <v>116</v>
-      </c>
       <c r="H9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1792,19 +1792,19 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10">
         <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1812,7 +1812,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11">
         <v>28</v>
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1832,7 +1832,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12">
         <v>28</v>
@@ -1841,10 +1841,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1852,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13">
         <v>90</v>
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1872,7 +1872,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14">
         <v>90</v>
@@ -1881,10 +1881,10 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1892,19 +1892,19 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15">
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1912,7 +1912,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16">
         <v>28</v>
@@ -1921,10 +1921,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1932,7 +1932,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="6">
         <v>90</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1952,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C18">
         <v>90</v>
@@ -1961,10 +1961,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1972,7 +1972,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19">
         <v>90</v>
@@ -1981,10 +1981,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1992,16 +1992,16 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20">
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2009,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21">
         <v>28</v>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2026,7 +2026,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C22">
         <v>90</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2043,16 +2043,16 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C23">
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2060,7 +2060,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C24">
         <v>28</v>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2077,7 +2077,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C25">
         <v>28</v>
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2094,7 +2094,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C26">
         <v>90</v>
@@ -2103,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2111,7 +2111,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C27">
         <v>90</v>
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2128,16 +2128,16 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C28">
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2145,7 +2145,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2162,7 +2162,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C30">
         <v>28</v>
@@ -2171,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2179,7 +2179,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C31">
         <v>90</v>
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2196,7 +2196,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C32">
         <v>90</v>
@@ -2205,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2472,22 +2472,22 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2495,28 +2495,28 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C19" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C21" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2550,7 +2550,7 @@
         <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2613,22 +2613,22 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2636,7 +2636,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2667,7 +2667,7 @@
         <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2712,13 +2712,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2737,39 +2737,39 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2777,10 +2777,10 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2793,7 +2793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2810,7 +2810,7 @@
         <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2904,22 +2904,22 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2927,15 +2927,15 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" t="s">
         <v>169</v>
-      </c>
-      <c r="F11" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2948,8 +2948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2965,7 +2965,7 @@
         <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2973,10 +2973,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3019,13 +3019,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3107,22 +3107,22 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3130,29 +3130,29 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" t="s">
         <v>177</v>
-      </c>
-      <c r="D16" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3181,7 +3181,7 @@
         <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3273,7 +3273,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3287,7 +3287,7 @@
         <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3361,7 +3361,7 @@
         <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3446,6 +3446,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100A30F3884CD43244294355762AE14FDC0" ma:contentTypeVersion="13" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="d6abdbf5296efb927e779bc42333b79d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c8b53866-fdfd-416a-aee2-e50c3ae941dd" xmlns:ns4="9d433cf1-fba1-428a-9634-baf48b90bf9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cbc3d42f92fe2e49d2b946bcae330cb" ns3:_="" ns4:_="">
     <xsd:import namespace="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
@@ -3668,22 +3683,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A7B083-9D0F-4795-94A6-C1128A2A5DD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3700,29 +3725,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DB Scripts/Components Detail.xlsx
+++ b/DB Scripts/Components Detail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="10" r:id="rId1"/>
@@ -429,7 +429,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="190">
   <si>
     <t>PERSON</t>
   </si>
@@ -612,9 +612,6 @@
     <t>ORGID</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>Ngày tiêm chủng</t>
   </si>
   <si>
@@ -997,6 +994,12 @@
   </si>
   <si>
     <t>blob</t>
+  </si>
+  <si>
+    <t>ONDATE</t>
+  </si>
+  <si>
+    <t>PUBLISHDATE</t>
   </si>
 </sst>
 </file>
@@ -1502,7 +1505,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,15 +1517,15 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
@@ -1546,7 +1549,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -1554,43 +1557,43 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1603,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,10 +1618,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1629,62 +1632,62 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1719,20 +1722,20 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>40</v>
@@ -1740,15 +1743,15 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1756,7 +1759,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1764,27 +1767,27 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
         <v>113</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" t="s">
         <v>114</v>
       </c>
-      <c r="C9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" t="s">
-        <v>115</v>
-      </c>
       <c r="H9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1792,19 +1795,19 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10">
         <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1812,7 +1815,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11">
         <v>28</v>
@@ -1821,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1832,7 +1835,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12">
         <v>28</v>
@@ -1841,10 +1844,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1852,7 +1855,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13">
         <v>90</v>
@@ -1861,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1872,7 +1875,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14">
         <v>90</v>
@@ -1881,10 +1884,10 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1892,19 +1895,19 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C15">
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1912,7 +1915,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16">
         <v>28</v>
@@ -1921,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1932,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C17" s="6">
         <v>90</v>
@@ -1941,10 +1944,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1952,7 +1955,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18">
         <v>90</v>
@@ -1961,10 +1964,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1972,7 +1975,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19">
         <v>90</v>
@@ -1981,10 +1984,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1992,16 +1995,16 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20">
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2009,7 +2012,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21">
         <v>28</v>
@@ -2018,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2026,7 +2029,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22">
         <v>90</v>
@@ -2035,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2043,16 +2046,16 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23">
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2060,7 +2063,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C24">
         <v>28</v>
@@ -2069,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2077,7 +2080,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C25">
         <v>28</v>
@@ -2086,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2094,7 +2097,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26">
         <v>90</v>
@@ -2103,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2111,7 +2114,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27">
         <v>90</v>
@@ -2120,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2128,16 +2131,16 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C28">
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2145,7 +2148,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -2154,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2162,7 +2165,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30">
         <v>28</v>
@@ -2171,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2179,7 +2182,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C31">
         <v>90</v>
@@ -2188,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2196,7 +2199,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C32">
         <v>90</v>
@@ -2205,7 +2208,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2235,7 +2238,7 @@
   <sheetData>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2243,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2251,7 +2254,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2259,7 +2262,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2267,7 +2270,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2275,7 +2278,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2310,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2472,22 +2475,22 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2495,28 +2498,28 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C19" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C21" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2550,7 +2553,7 @@
         <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2613,22 +2616,22 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2636,7 +2639,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2651,7 +2654,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2667,7 +2670,7 @@
         <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2688,7 +2691,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>179</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>51</v>
@@ -2712,13 +2715,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2737,39 +2740,39 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2777,10 +2780,10 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2810,7 +2813,7 @@
         <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2904,22 +2907,22 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2927,15 +2930,15 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" t="s">
         <v>168</v>
-      </c>
-      <c r="F11" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2948,8 +2951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2965,7 +2968,7 @@
         <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2973,10 +2976,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2995,18 +2998,18 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="3" t="str">
         <f>VACCINE!B2</f>
@@ -3019,79 +3022,79 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3107,22 +3110,22 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3130,29 +3133,29 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" t="s">
         <v>176</v>
-      </c>
-      <c r="D16" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3178,10 +3181,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3212,13 +3215,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3229,26 +3232,26 @@
         <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
         <v>103</v>
-      </c>
-      <c r="B7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3284,10 +3287,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3305,24 +3308,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
         <v>78</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>79</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3358,10 +3361,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3379,30 +3382,30 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3419,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3427,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3435,7 +3438,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3446,21 +3449,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100A30F3884CD43244294355762AE14FDC0" ma:contentTypeVersion="13" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="d6abdbf5296efb927e779bc42333b79d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c8b53866-fdfd-416a-aee2-e50c3ae941dd" xmlns:ns4="9d433cf1-fba1-428a-9634-baf48b90bf9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cbc3d42f92fe2e49d2b946bcae330cb" ns3:_="" ns4:_="">
     <xsd:import namespace="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
@@ -3683,32 +3671,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A7B083-9D0F-4795-94A6-C1128A2A5DD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3725,4 +3703,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DB Scripts/Components Detail.xlsx
+++ b/DB Scripts/Components Detail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="10" r:id="rId1"/>
@@ -429,7 +429,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="196">
   <si>
     <t>PERSON</t>
   </si>
@@ -548,9 +548,6 @@
     <t>Mã định danh cá nhân 12 chữ số của người giám hộ</t>
   </si>
   <si>
-    <t>VACCINE</t>
-  </si>
-  <si>
     <t>varchar2(8)</t>
   </si>
   <si>
@@ -575,9 +572,6 @@
     <t>Nước sản xuất vaccine</t>
   </si>
   <si>
-    <t>INJECTION</t>
-  </si>
-  <si>
     <t>PERSONALID</t>
   </si>
   <si>
@@ -591,9 +585,6 @@
   </si>
   <si>
     <t>SCHEDID</t>
-  </si>
-  <si>
-    <t>ORGANIZATION</t>
   </si>
   <si>
     <t>varhar2(16)</t>
@@ -606,9 +597,6 @@
     <t>Tên đơn vị</t>
   </si>
   <si>
-    <t>SCHEDULE</t>
-  </si>
-  <si>
     <t>ORGID</t>
   </si>
   <si>
@@ -642,9 +630,6 @@
     <t>NIGHTREGISTERED</t>
   </si>
   <si>
-    <t>REGISTER</t>
-  </si>
-  <si>
     <t>TIME</t>
   </si>
   <si>
@@ -660,9 +645,6 @@
     <t>Trạng thái lịch đăng ký: 0 đã đăng ký, 1 điểm danh, 2 đã tiêm, 3 đã hủy</t>
   </si>
   <si>
-    <t>CERTIFICATE</t>
-  </si>
-  <si>
     <t>DOSE</t>
   </si>
   <si>
@@ -723,9 +705,6 @@
     <t>Dương tính</t>
   </si>
   <si>
-    <t>ACCOUNT</t>
-  </si>
-  <si>
     <t>ROLE</t>
   </si>
   <si>
@@ -753,12 +732,6 @@
     <t>varchar2(4000)</t>
   </si>
   <si>
-    <t>ANNOUNCEMENT</t>
-  </si>
-  <si>
-    <t>CONSTRAINT</t>
-  </si>
-  <si>
     <t>NEXTTIME</t>
   </si>
   <si>
@@ -1000,6 +973,51 @@
   </si>
   <si>
     <t>PUBLISHDATE</t>
+  </si>
+  <si>
+    <t>FilledDate = SYSDATE</t>
+  </si>
+  <si>
+    <t>Healths is a string contains only characters '0' or '1'</t>
+  </si>
+  <si>
+    <t>PublishDate = SYSDATE</t>
+  </si>
+  <si>
+    <t>Dose IN (1,2,3,4)</t>
+  </si>
+  <si>
+    <t>Certificate IN (0,1,2)</t>
+  </si>
+  <si>
+    <t>void Count_Certificate(int Type</t>
+  </si>
+  <si>
+    <t>ACCOUNT (ACC)</t>
+  </si>
+  <si>
+    <t>INJECTION (INJ)</t>
+  </si>
+  <si>
+    <t>ORGANIZATION (ORG)</t>
+  </si>
+  <si>
+    <t>SCHEDULE (SCHED)</t>
+  </si>
+  <si>
+    <t>REGISTER (REG)</t>
+  </si>
+  <si>
+    <t>CERTIFICATE (CERT)</t>
+  </si>
+  <si>
+    <t>ANNOUNCEMENT (ANNOUNCE)</t>
+  </si>
+  <si>
+    <t>CONSTRAINT (CONST)</t>
+  </si>
+  <si>
+    <t>VACCINE (VAC)</t>
   </si>
 </sst>
 </file>
@@ -1505,27 +1523,27 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
@@ -1541,7 +1559,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1549,7 +1567,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -1557,43 +1575,43 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="B8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1604,27 +1622,27 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>193</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1632,70 +1650,101 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1706,10 +1755,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,36 +1771,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1759,7 +1808,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1767,27 +1816,27 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1795,19 +1844,19 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C10">
         <v>56</v>
       </c>
       <c r="D10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" t="s">
         <v>127</v>
-      </c>
-      <c r="E10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H10" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1815,7 +1864,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C11">
         <v>28</v>
@@ -1824,10 +1873,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H11" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1835,7 +1884,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C12">
         <v>28</v>
@@ -1844,10 +1893,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="H12" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1855,7 +1904,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C13">
         <v>90</v>
@@ -1864,10 +1913,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H13" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1875,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C14">
         <v>90</v>
@@ -1884,10 +1933,10 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="H14" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1895,19 +1944,19 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C15">
         <v>21</v>
       </c>
       <c r="D15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" t="s">
         <v>127</v>
-      </c>
-      <c r="E15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1915,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C16">
         <v>28</v>
@@ -1924,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H16" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1935,7 +1984,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C17" s="6">
         <v>90</v>
@@ -1944,10 +1993,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="H17" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1955,7 +2004,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C18">
         <v>90</v>
@@ -1964,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="H18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1975,7 +2024,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C19">
         <v>90</v>
@@ -1984,10 +2033,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="H19" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1995,16 +2044,16 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C20">
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2012,7 +2061,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C21">
         <v>28</v>
@@ -2021,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2029,7 +2078,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C22">
         <v>90</v>
@@ -2038,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2046,16 +2095,16 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C23">
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2063,7 +2112,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C24">
         <v>28</v>
@@ -2072,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2080,7 +2129,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C25">
         <v>28</v>
@@ -2089,7 +2138,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2097,7 +2146,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C26">
         <v>90</v>
@@ -2106,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2114,7 +2163,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C27">
         <v>90</v>
@@ -2123,7 +2172,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2131,16 +2180,16 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C28">
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2148,7 +2197,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -2157,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2165,7 +2214,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C30">
         <v>28</v>
@@ -2174,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2182,7 +2231,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C31">
         <v>90</v>
@@ -2191,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2199,7 +2248,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C32">
         <v>90</v>
@@ -2208,6 +2257,26 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2238,7 +2307,7 @@
   <sheetData>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2246,7 +2315,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2254,7 +2323,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2262,7 +2331,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2270,7 +2339,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2278,7 +2347,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2292,9 +2361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2313,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2475,22 +2542,22 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2498,28 +2565,28 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C19" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C21" s="8" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2536,8 +2603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2550,10 +2617,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2564,43 +2631,43 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
         <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2616,22 +2683,22 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2639,7 +2706,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2654,7 +2721,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2667,10 +2734,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2678,7 +2745,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="str">
         <f>PERSON!B2</f>
@@ -2691,18 +2758,18 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="3" t="str">
         <f>SCHEDULE!B2</f>
@@ -2715,13 +2782,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2740,50 +2807,50 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F9" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2797,7 +2864,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2810,10 +2877,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>189</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2824,21 +2891,21 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2907,22 +2974,22 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2930,15 +2997,15 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F11" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2951,9 +3018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2965,10 +3030,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2976,15 +3041,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B3" s="3" t="str">
         <f>ORGANIZATION!B2</f>
@@ -2998,18 +3063,18 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B5" s="3" t="str">
         <f>VACCINE!B2</f>
@@ -3022,79 +3087,79 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3110,22 +3175,22 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3133,29 +3198,29 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D16" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D17" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3170,26 +3235,26 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="B1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="str">
         <f>PERSON!B2</f>
@@ -3202,7 +3267,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="4" t="str">
         <f>SCHEDULE!B2</f>
@@ -3215,43 +3280,43 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3273,29 +3338,31 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="str">
         <f>PERSON!B2</f>
@@ -3306,29 +3373,29 @@
         <v>Mã định danh cá nhân 12 chữ số</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -3337,6 +3404,45 @@
       </c>
       <c r="C5" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3347,10 +3453,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3359,17 +3465,17 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="str">
         <f>PERSON!B2</f>
@@ -3380,35 +3486,35 @@
         <v>Mã định danh cá nhân 12 chữ số</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -3422,23 +3528,59 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/DB Scripts/Components Detail.xlsx
+++ b/DB Scripts/Components Detail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="10" r:id="rId1"/>
@@ -429,7 +429,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="195">
   <si>
     <t>PERSON</t>
   </si>
@@ -933,15 +933,6 @@
     <t>Date &gt; SYSDATE</t>
   </si>
   <si>
-    <t>DayRegistered &lt;= LimitDay</t>
-  </si>
-  <si>
-    <t>NoonRegistered &lt;= LimitNoon</t>
-  </si>
-  <si>
-    <t>NightRegistered &lt;= LimitNight</t>
-  </si>
-  <si>
     <t>INJNO</t>
   </si>
   <si>
@@ -1018,13 +1009,19 @@
   </si>
   <si>
     <t>VACCINE (VAC)</t>
+  </si>
+  <si>
+    <t>Registered &lt;= Limit</t>
+  </si>
+  <si>
+    <t>CERTTYPE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1049,6 +1046,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1080,7 +1084,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1094,6 +1098,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1535,7 +1540,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B1" t="s">
         <v>155</v>
@@ -1636,7 +1641,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s">
         <v>157</v>
@@ -1650,7 +1655,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1661,7 +1666,7 @@
         <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1672,7 +1677,7 @@
         <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1683,18 +1688,18 @@
         <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1702,10 +1707,10 @@
         <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1744,7 +1749,7 @@
         <v>163</v>
       </c>
       <c r="C11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1771,12 +1776,12 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>102</v>
@@ -2361,7 +2366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2603,7 +2608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2617,7 +2622,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
         <v>156</v>
@@ -2734,7 +2739,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B1" t="s">
         <v>155</v>
@@ -2758,7 +2763,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>49</v>
@@ -2877,7 +2882,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B1" t="s">
         <v>157</v>
@@ -3016,9 +3021,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3030,10 +3037,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3063,7 +3070,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -3194,33 +3201,25 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C16" t="s">
         <v>166</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="D17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3246,10 +3245,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3340,8 +3339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3354,7 +3353,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B1" t="s">
         <v>156</v>
@@ -3386,7 +3385,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -3434,15 +3433,15 @@
         <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3575,12 +3574,12 @@
         <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/DB Scripts/Components Detail.xlsx
+++ b/DB Scripts/Components Detail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="10" r:id="rId1"/>
@@ -429,7 +429,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="204">
   <si>
     <t>PERSON</t>
   </si>
@@ -720,9 +720,6 @@
     <t>IMAGE</t>
   </si>
   <si>
-    <t>ordimgb</t>
-  </si>
-  <si>
     <t>varchar2(200)</t>
   </si>
   <si>
@@ -873,9 +870,6 @@
     <t>Username only contain alphabet and digit characters</t>
   </si>
   <si>
-    <t>int AGE() --Return the age of the person</t>
-  </si>
-  <si>
     <t>Name UNIQUE</t>
   </si>
   <si>
@@ -891,12 +885,6 @@
     <t>Type IN (0,1,2)</t>
   </si>
   <si>
-    <t>boolean INJECTIONS_DIFFERENCE(varchar2 PersonalID) --Check the difference between the injections of a person, return 0 if they're all the same, 1 if they're difference</t>
-  </si>
-  <si>
-    <t>void UPDATE_NEW_INJECTION(varchar2 PersonalID, varchar2 SchedID) --Update a new injection data for a person</t>
-  </si>
-  <si>
     <t>20521252 - Le Hoang Duyen</t>
   </si>
   <si>
@@ -906,15 +894,6 @@
     <t>20521890 - Truong Nguyen Quang Thai</t>
   </si>
   <si>
-    <t xml:space="preserve"> void PUSH_ANNOUNCEMENT(ANNOUNCEMENT Post, varchar2 Province, varchar2 District, varchar2 Town) --Push the announcement to the citizen in the specify area</t>
-  </si>
-  <si>
-    <t>int COUNT_SCHEDULES(varchar2 OrgID, date StartDate = NULL, date EndDate = NULL) --Count the number of schedules were hold by the ORG from StartDate to EndDate. If parameters are blank, counts all</t>
-  </si>
-  <si>
-    <t>int COUNT_INJECTIONS(varchar2 OrgID, date StartDate = NULL, date EndDate = NULL) --Count the number of injections have been done by the ORG from StartDate to EndDate. If parameters are blank, counts all</t>
-  </si>
-  <si>
     <t>SERIAL</t>
   </si>
   <si>
@@ -1015,6 +994,54 @@
   </si>
   <si>
     <t>CERTTYPE</t>
+  </si>
+  <si>
+    <t>SchedID</t>
+  </si>
+  <si>
+    <t>SchedID -&gt; SCHEDULE(ID)</t>
+  </si>
+  <si>
+    <t>Time in (0,1,2)</t>
+  </si>
+  <si>
+    <t>Status in (0,1,2,3)</t>
+  </si>
+  <si>
+    <t>NO &lt;= the number of Limit due to the register Time</t>
+  </si>
+  <si>
+    <t>The vaccine used in the registered schedule must be compitable with the previous vaccine injection (if have)</t>
+  </si>
+  <si>
+    <t>The registered injection must follow the space rule of the previous vaccine injection</t>
+  </si>
+  <si>
+    <t>boolean INJ_Difference(varchar2 PersonalID) --Check the difference between the injections of a person, return 0 if they're all the same, 1 if they're difference</t>
+  </si>
+  <si>
+    <t>int ORG_COUNT_INJ(varchar2 OrgID, date StartDate = NULL, date EndDate = NULL) --Count the number of injections have been done by the ORG from StartDate to EndDate. If parameters are blank, counts all</t>
+  </si>
+  <si>
+    <t>int ORG_COUNT_SCHED(varchar2 OrgID, date StartDate = NULL, date EndDate = NULL) --Count the number of schedules were hold by the ORG from StartDate to EndDate. If parameters are blank, counts all</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> void ORG_ANNOUCE(ANNOUNCEMENT Post, varchar2 Province, varchar2 District, varchar2 Town) --Push the announcement to the citizen in the specify area</t>
+  </si>
+  <si>
+    <t>void INJ_UPDATE(varchar2 PersonalID, varchar2 SchedID) --Update a new injection data for a person</t>
+  </si>
+  <si>
+    <t>int PERSON_AGE() --Return the age of the person</t>
+  </si>
+  <si>
+    <t>void SCHED_INC_REG(int Time) --Increase 1 registion at Time parameter</t>
+  </si>
+  <si>
+    <t>void SCHED_DEC_REG(int Time) --Decrease 1 registion at Time parameter</t>
+  </si>
+  <si>
+    <t>void REG_SIGNED_NO() --Set the NO of registion</t>
   </si>
 </sst>
 </file>
@@ -1528,7 +1555,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,10 +1567,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1580,43 +1607,43 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1641,10 +1668,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1655,18 +1682,18 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1674,10 +1701,10 @@
         <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1685,21 +1712,21 @@
         <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1707,10 +1734,10 @@
         <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1723,22 +1750,22 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1746,10 +1773,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1776,15 +1803,15 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1797,15 +1824,15 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1813,7 +1840,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1821,27 +1848,27 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
         <v>103</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" t="s">
         <v>104</v>
       </c>
-      <c r="C9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" t="s">
-        <v>105</v>
-      </c>
       <c r="H9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1849,19 +1876,19 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10">
         <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1869,7 +1896,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11">
         <v>28</v>
@@ -1878,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1889,7 +1916,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12">
         <v>28</v>
@@ -1898,10 +1925,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1909,7 +1936,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13">
         <v>90</v>
@@ -1918,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1929,7 +1956,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14">
         <v>90</v>
@@ -1938,10 +1965,10 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1949,19 +1976,19 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15">
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1969,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16">
         <v>28</v>
@@ -1978,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1989,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" s="6">
         <v>90</v>
@@ -1998,10 +2025,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2009,7 +2036,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18">
         <v>90</v>
@@ -2018,10 +2045,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2029,7 +2056,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19">
         <v>90</v>
@@ -2038,10 +2065,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2049,16 +2076,16 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20">
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2066,7 +2093,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21">
         <v>28</v>
@@ -2075,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2083,7 +2110,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22">
         <v>90</v>
@@ -2092,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2100,16 +2127,16 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23">
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2117,7 +2144,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C24">
         <v>28</v>
@@ -2126,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2134,7 +2161,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25">
         <v>28</v>
@@ -2143,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2151,7 +2178,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C26">
         <v>90</v>
@@ -2160,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2168,7 +2195,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C27">
         <v>90</v>
@@ -2177,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2185,16 +2212,16 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28">
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2202,7 +2229,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -2211,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2219,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30">
         <v>28</v>
@@ -2228,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2236,7 +2263,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31">
         <v>90</v>
@@ -2245,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2253,7 +2280,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32">
         <v>90</v>
@@ -2262,27 +2289,27 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2366,7 +2393,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2385,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2547,22 +2576,22 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2570,28 +2599,28 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C19" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C21" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2622,10 +2651,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2688,22 +2717,22 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2711,7 +2740,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2726,7 +2755,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2739,10 +2768,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2763,7 +2792,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>49</v>
@@ -2787,13 +2816,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2812,39 +2841,39 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" t="s">
         <v>149</v>
       </c>
-      <c r="B9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" t="s">
-        <v>151</v>
-      </c>
       <c r="E9" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="F9" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2852,10 +2881,10 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" t="s">
         <v>150</v>
-      </c>
-      <c r="C10" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2869,7 +2898,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2882,10 +2911,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2979,22 +3008,22 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3002,15 +3031,15 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="F11" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3023,8 +3052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3037,10 +3066,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3048,10 +3077,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3070,7 +3099,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -3094,13 +3123,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3182,22 +3211,22 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3205,21 +3234,27 @@
         <v>2</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>165</v>
+        <v>158</v>
+      </c>
+      <c r="E17" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3231,27 +3266,29 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
@@ -3264,7 +3301,7 @@
         <v>Mã định danh cá nhân 12 chữ số</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>51</v>
       </c>
@@ -3277,7 +3314,7 @@
         <v>Mã lịch tiêm tạo thành từ ID đvtc + các số ngày tháng năm viết liền nhau, 2 ký tự còn lại là chữ số để phân biệt các lịch tiêm trong cùng ngày của đơn vị</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -3288,7 +3325,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -3299,7 +3336,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -3310,15 +3347,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -3327,6 +3364,62 @@
       </c>
       <c r="C8" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3339,8 +3432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3353,10 +3446,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3385,7 +3478,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -3407,41 +3500,41 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E8" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3469,7 +3562,7 @@
         <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3548,38 +3641,38 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3590,6 +3683,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100A30F3884CD43244294355762AE14FDC0" ma:contentTypeVersion="13" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="d6abdbf5296efb927e779bc42333b79d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c8b53866-fdfd-416a-aee2-e50c3ae941dd" xmlns:ns4="9d433cf1-fba1-428a-9634-baf48b90bf9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cbc3d42f92fe2e49d2b946bcae330cb" ns3:_="" ns4:_="">
     <xsd:import namespace="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
@@ -3812,22 +3920,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A7B083-9D0F-4795-94A6-C1128A2A5DD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3844,29 +3962,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DB Scripts/Components Detail.xlsx
+++ b/DB Scripts/Components Detail.xlsx
@@ -429,7 +429,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="205">
   <si>
     <t>PERSON</t>
   </si>
@@ -1041,7 +1041,10 @@
     <t>void SCHED_DEC_REG(int Time) --Decrease 1 registion at Time parameter</t>
   </si>
   <si>
-    <t>void REG_SIGNED_NO() --Set the NO of registion</t>
+    <t>void REG_INSERT_VALUE(varchar2 PersonalID, varchar2 SchedID, number Time) --Set values for registion</t>
+  </si>
+  <si>
+    <t>number REG_SIGNED_NO(varchar2 PersonalID, varchar2 SchedID, number Time) --Set the NO value of the registion</t>
   </si>
 </sst>
 </file>
@@ -3269,7 +3272,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3401,6 +3404,9 @@
       </c>
       <c r="E11" t="s">
         <v>203</v>
+      </c>
+      <c r="F11" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">

--- a/DB Scripts/Components Detail.xlsx
+++ b/DB Scripts/Components Detail.xlsx
@@ -429,7 +429,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="206">
   <si>
     <t>PERSON</t>
   </si>
@@ -1035,16 +1035,19 @@
     <t>int PERSON_AGE() --Return the age of the person</t>
   </si>
   <si>
-    <t>void SCHED_INC_REG(int Time) --Increase 1 registion at Time parameter</t>
-  </si>
-  <si>
     <t>void SCHED_DEC_REG(int Time) --Decrease 1 registion at Time parameter</t>
   </si>
   <si>
-    <t>void REG_INSERT_VALUE(varchar2 PersonalID, varchar2 SchedID, number Time) --Set values for registion</t>
-  </si>
-  <si>
     <t>number REG_SIGNED_NO(varchar2 PersonalID, varchar2 SchedID, number Time) --Set the NO value of the registion</t>
+  </si>
+  <si>
+    <t>REG_INSERT_VALUE(varchar2 PersonalID, varchar2 SchedID, number Time) --Set values for registion</t>
+  </si>
+  <si>
+    <t>SCHED_INC_REG(int Time) --Increase 1 registion at Time parameter</t>
+  </si>
+  <si>
+    <t>REG_CANCEL_REG(PersonalID, SchedID) --Canceled a registion</t>
   </si>
 </sst>
 </file>
@@ -3055,8 +3058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3246,7 +3249,7 @@
         <v>186</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3257,7 +3260,7 @@
         <v>158</v>
       </c>
       <c r="E17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3272,7 +3275,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3406,7 +3409,7 @@
         <v>203</v>
       </c>
       <c r="F11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3421,6 +3424,9 @@
       </c>
       <c r="D12" t="s">
         <v>194</v>
+      </c>
+      <c r="E12" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">

--- a/DB Scripts/Components Detail.xlsx
+++ b/DB Scripts/Components Detail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,69 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>operator</author>
+  </authors>
+  <commentList>
+    <comment ref="E9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NghiepCuong:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- Only put Username and Password to create an ACCOUNT.
+- OrgID must be NULL
+- Role must be 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">NghiepCuong:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>- OrgID must begins with ProvinceCode, ends with number in order.
+- Role must be 1. If the account created for MOH, role must be 0.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
     <author>Đặng Nghiệp Cường</author>
+    <author>operator</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -55,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0" shapeId="0">
+    <comment ref="A14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,11 +132,59 @@
         </r>
       </text>
     </comment>
+    <comment ref="E18" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NghiepCuong:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- Phone is automatically set by Username</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NghiepCuong:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- Check if a parameter is null, it means the attribute is not changed, then keep the old value.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Đặng Nghiệp Cường</author>
@@ -114,10 +224,11 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Đặng Nghiệp Cường</author>
+    <author>operator</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -149,14 +260,39 @@
         </r>
       </text>
     </comment>
+    <comment ref="E9" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> NghiepCuong:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- Type is calculate by INJ_TYPE(PersonalID, InjNO)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Đặng Nghiệp Cường</author>
+    <author>operator</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -174,14 +310,63 @@
         </r>
       </text>
     </comment>
+    <comment ref="F11" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NghiepCuong:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- Remember to check the validation between StartDate and EndDate.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">NghiepCuong:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>- Remember to check the validation between StartDate and EndDate.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Đặng Nghiệp Cường</author>
+    <author>operator</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -259,11 +444,35 @@
         </r>
       </text>
     </comment>
+    <comment ref="E16" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NghiepCuong:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- If a LimitNumber parameter of a Time is NULL, set LimitNumber of that time to 0.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Đặng Nghiệp Cường</author>
@@ -333,7 +542,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Đặng Nghiệp Cường</author>
@@ -373,7 +582,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Đặng Nghiệp Cường</author>
@@ -429,7 +638,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="235">
   <si>
     <t>PERSON</t>
   </si>
@@ -477,9 +686,6 @@
   </si>
   <si>
     <t>number(1)</t>
-  </si>
-  <si>
-    <t>Giới tính: 0 nữ, 1 nam, 2 khác</t>
   </si>
   <si>
     <t>HOMETOWN</t>
@@ -861,9 +1067,6 @@
     <t>FirstName only contains alphabet characters</t>
   </si>
   <si>
-    <t>Gender IN (0,1,2)</t>
-  </si>
-  <si>
     <t>Phone only contains non-negative digits [and a '+' character]</t>
   </si>
   <si>
@@ -909,9 +1112,6 @@
     <t>VaccineID -&gt; VACCINE(ID)</t>
   </si>
   <si>
-    <t>Date &gt; SYSDATE</t>
-  </si>
-  <si>
     <t>INJNO</t>
   </si>
   <si>
@@ -990,9 +1190,6 @@
     <t>VACCINE (VAC)</t>
   </si>
   <si>
-    <t>Registered &lt;= Limit</t>
-  </si>
-  <si>
     <t>CERTTYPE</t>
   </si>
   <si>
@@ -1008,9 +1205,6 @@
     <t>Status in (0,1,2,3)</t>
   </si>
   <si>
-    <t>NO &lt;= the number of Limit due to the register Time</t>
-  </si>
-  <si>
     <t>The vaccine used in the registered schedule must be compitable with the previous vaccine injection (if have)</t>
   </si>
   <si>
@@ -1020,41 +1214,143 @@
     <t>boolean INJ_Difference(varchar2 PersonalID) --Check the difference between the injections of a person, return 0 if they're all the same, 1 if they're difference</t>
   </si>
   <si>
-    <t>int ORG_COUNT_INJ(varchar2 OrgID, date StartDate = NULL, date EndDate = NULL) --Count the number of injections have been done by the ORG from StartDate to EndDate. If parameters are blank, counts all</t>
-  </si>
-  <si>
-    <t>int ORG_COUNT_SCHED(varchar2 OrgID, date StartDate = NULL, date EndDate = NULL) --Count the number of schedules were hold by the ORG from StartDate to EndDate. If parameters are blank, counts all</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> void ORG_ANNOUCE(ANNOUNCEMENT Post, varchar2 Province, varchar2 District, varchar2 Town) --Push the announcement to the citizen in the specify area</t>
-  </si>
-  <si>
-    <t>void INJ_UPDATE(varchar2 PersonalID, varchar2 SchedID) --Update a new injection data for a person</t>
-  </si>
-  <si>
-    <t>int PERSON_AGE() --Return the age of the person</t>
-  </si>
-  <si>
-    <t>void SCHED_DEC_REG(int Time) --Decrease 1 registion at Time parameter</t>
-  </si>
-  <si>
     <t>number REG_SIGNED_NO(varchar2 PersonalID, varchar2 SchedID, number Time) --Set the NO value of the registion</t>
   </si>
   <si>
-    <t>REG_INSERT_VALUE(varchar2 PersonalID, varchar2 SchedID, number Time) --Set values for registion</t>
-  </si>
-  <si>
-    <t>SCHED_INC_REG(int Time) --Increase 1 registion at Time parameter</t>
-  </si>
-  <si>
-    <t>REG_CANCEL_REG(PersonalID, SchedID) --Canceled a registion</t>
+    <t>SCHED_INC_REG(SchedId, Time) --Increase 1 registion at Time parameter</t>
+  </si>
+  <si>
+    <t>SCHED_DEC_REG(SchedID, Time) --Decrease 1 registion at Time parameter</t>
+  </si>
+  <si>
+    <t>INJECTIONNO</t>
+  </si>
+  <si>
+    <t>ACC_DELETE_RECORD(Username) --Delete an account</t>
+  </si>
+  <si>
+    <t>Giới tính: 0 nữ, 1 nam, NULL khác</t>
+  </si>
+  <si>
+    <t>Gender IN (0,1)</t>
+  </si>
+  <si>
+    <t>PERSON_DELETE_RECORD(PersonalID)</t>
+  </si>
+  <si>
+    <t>VAC_INSERT_RECORD(ID, Name, Technology, Country, Note DEFAULT NULL)</t>
+  </si>
+  <si>
+    <t>VAC_DELETE_RECORD(VaccineID)</t>
+  </si>
+  <si>
+    <t>INJ_DELETE_RECORD(PersonalID, InjNO)</t>
+  </si>
+  <si>
+    <t>SchedID is not null</t>
+  </si>
+  <si>
+    <t>Type is not null</t>
+  </si>
+  <si>
+    <t>Name is not null</t>
+  </si>
+  <si>
+    <t>Province is not null</t>
+  </si>
+  <si>
+    <t>ORG_DELETE_RECORD(OrgID)</t>
+  </si>
+  <si>
+    <t>ORG_ANNOUCE(ANNOUNCEMENT Post, varchar2 Province, varchar2 District, varchar2 Town) --Push the announcement to the citizen in the specify area</t>
+  </si>
+  <si>
+    <t>OrgID is not null</t>
+  </si>
+  <si>
+    <t>VaccineID is not null</t>
+  </si>
+  <si>
+    <t>OnDate is not null</t>
+  </si>
+  <si>
+    <t>ACC_RESET_PASSWORD(Username, VerifyCode) --Reset password of an account</t>
+  </si>
+  <si>
+    <t>number PERSON_AGE() --Return the age of the person</t>
+  </si>
+  <si>
+    <t>ORG_UPDATE_RECORD(ID, Name, Province, District DEFAULT NULL, Town DEFAULT NULL, Street DEFAULT NULL, Note DEFAULT NULL)</t>
+  </si>
+  <si>
+    <t>SCHED_DELETE_RECORD(SchedID)</t>
+  </si>
+  <si>
+    <t>Phone -&gt; ACCOUNT(Username)</t>
+  </si>
+  <si>
+    <t>ID -&gt; ACCOUNT(ORGID)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrgID DEFAULT NULL </t>
+  </si>
+  <si>
+    <t>Role DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t>ACC_CREATE_ORG(number Quantity, varchar2 ProvinceCode) --Create a Quantity of accounts for organizations in a province</t>
+  </si>
+  <si>
+    <t>ACC_INSERT_RECORD(Username, Password, Note DEFAULT NULL) --Create a new personal accoount</t>
+  </si>
+  <si>
+    <t>ACC_UPDATE_PASSWORD(Username, OldPass, NewPass) --Update password of an account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERSON_INSERT_RECORD(ID, LastName DEFAULT NULL, FirstName, Birthday, Gender DEFAULT NULL, HomeTown/Province/District/Town/Street DEFAULT NULL, Email DEFAULT NULL, Guardian/Note DEFAULT NULL) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERSON_UPDATE_RECORD(ID, LastName, FirstName, Gender, HomeTown, Province, District, Town, Street, Email, Guardian, Note) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">number INJ_TYPE(PersonalID, InjNO) --Return the type of the injection </t>
+  </si>
+  <si>
+    <t>INJ_INSERT_RECORD(PersonalID, InjNO, SchedID, Note DEFAULT NULL)</t>
+  </si>
+  <si>
+    <t>ORG_INSERT_RECORD(ID, Name, Province, District, Town, Street, Note DEFAULT NULL)</t>
+  </si>
+  <si>
+    <t>number ORG_COUNT_SCHED(OrgID, StartDate, EndDate) --Count the number of schedules were hold by the ORG from StartDate to EndDate. If parameters are blank, counts al</t>
+  </si>
+  <si>
+    <t>number ORG_COUNT_INJ(OrgID, StartDate, EndDate) --Count the number of injections have been done by the ORG from StartDate to EndDate. If parameters are blank, counts all</t>
+  </si>
+  <si>
+    <t>SCHED_INSERT_RECORD(OrgID, OnDate, VaccineID, Serial, LimitDay, LimitNoon, LitmitNight, Note DEFAULT NULL) --Insert schedule record</t>
+  </si>
+  <si>
+    <t>OnDate &gt; SYSDATE</t>
+  </si>
+  <si>
+    <t>0 &lt;= Registered &lt;= Limit</t>
+  </si>
+  <si>
+    <t>REG_INSERT_VALUE(PersonalID, SchedID, Time) --Set values for registion</t>
+  </si>
+  <si>
+    <t>REG_NO_Limit: NO &lt;= the number of Limit due to the register Time</t>
+  </si>
+  <si>
+    <t>REG_DELETE_RECORD(PersonalID, SchedID) --Canceled a registion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1090,6 +1386,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1117,7 +1446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1132,6 +1461,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1557,47 +1887,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
+      <c r="A2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1605,56 +1935,88 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>138</v>
+      <c r="C9" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>137</v>
       </c>
+      <c r="E10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" t="s">
+        <v>211</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1674,10 +2036,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1688,90 +2050,90 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
         <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1779,10 +2141,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1795,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1809,36 +2171,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1846,7 +2208,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1854,27 +2216,27 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
         <v>102</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" t="s">
         <v>103</v>
       </c>
-      <c r="C9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" t="s">
-        <v>104</v>
-      </c>
       <c r="H9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1882,19 +2244,19 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10">
         <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1902,7 +2264,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11">
         <v>28</v>
@@ -1911,10 +2273,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1922,7 +2284,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12">
         <v>28</v>
@@ -1931,10 +2293,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1942,7 +2304,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13">
         <v>90</v>
@@ -1951,10 +2313,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1962,7 +2324,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14">
         <v>90</v>
@@ -1971,10 +2333,10 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1982,19 +2344,19 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15">
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2002,7 +2364,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16">
         <v>28</v>
@@ -2011,10 +2373,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2022,7 +2384,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" s="6">
         <v>90</v>
@@ -2031,10 +2393,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2042,7 +2404,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18">
         <v>90</v>
@@ -2051,10 +2413,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2062,7 +2424,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19">
         <v>90</v>
@@ -2071,10 +2433,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2082,16 +2444,16 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C20">
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2099,7 +2461,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21">
         <v>28</v>
@@ -2108,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2116,7 +2478,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22">
         <v>90</v>
@@ -2125,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2133,16 +2495,16 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23">
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2150,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24">
         <v>28</v>
@@ -2159,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2167,7 +2529,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25">
         <v>28</v>
@@ -2176,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2184,7 +2546,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C26">
         <v>90</v>
@@ -2193,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2201,7 +2563,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C27">
         <v>90</v>
@@ -2210,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2218,16 +2580,16 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C28">
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2235,7 +2597,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -2244,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2252,7 +2614,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C30">
         <v>28</v>
@@ -2261,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2269,7 +2631,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31">
         <v>90</v>
@@ -2278,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2286,7 +2648,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32">
         <v>90</v>
@@ -2295,27 +2657,27 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2345,7 +2707,7 @@
   <sheetData>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2353,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2361,7 +2723,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2369,7 +2731,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2377,7 +2739,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2385,7 +2747,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2399,8 +2761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2420,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2478,126 +2840,126 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C15" t="s">
         <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2605,28 +2967,40 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" t="s">
+        <v>222</v>
+      </c>
+      <c r="F18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C19" s="7" t="s">
-        <v>142</v>
+      <c r="E19" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
-        <v>143</v>
+        <v>197</v>
+      </c>
+      <c r="E20" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C21" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2641,10 +3015,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2657,10 +3031,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2671,74 +3045,74 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2746,7 +3120,15 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>144</v>
+      </c>
+      <c r="E9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2758,15 +3140,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -2774,10 +3156,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2785,7 +3167,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4" t="str">
         <f>PERSON!B2</f>
@@ -2798,18 +3180,18 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
         <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="3" t="str">
         <f>SCHEDULE!B2</f>
@@ -2822,24 +3204,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2847,50 +3229,66 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" t="s">
         <v>147</v>
       </c>
-      <c r="B9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" t="s">
-        <v>149</v>
-      </c>
       <c r="E9" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="F9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" t="s">
         <v>148</v>
       </c>
-      <c r="C10" t="s">
-        <v>150</v>
+      <c r="E10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2901,10 +3299,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2917,10 +3315,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2931,21 +3329,21 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
         <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2992,60 +3390,82 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
+      <c r="B11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" t="s">
+        <v>204</v>
+      </c>
       <c r="E11" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="F11" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" t="s">
+        <v>206</v>
+      </c>
       <c r="F12" t="s">
-        <v>196</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3056,10 +3476,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3067,15 +3487,15 @@
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3083,15 +3503,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="3" t="str">
         <f>ORGANIZATION!B2</f>
@@ -3105,18 +3525,18 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="3" t="str">
         <f>VACCINE!B2</f>
@@ -3129,110 +3549,110 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
         <v>58</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
         <v>62</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3240,27 +3660,46 @@
         <v>2</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>159</v>
+        <v>230</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>158</v>
+      <c r="C17" t="s">
+        <v>208</v>
       </c>
       <c r="E17" t="s">
-        <v>201</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>209</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3274,8 +3713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3288,15 +3727,15 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4" t="str">
         <f>PERSON!B2</f>
@@ -3309,7 +3748,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="4" t="str">
         <f>SCHEDULE!B2</f>
@@ -3322,116 +3761,116 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
         <v>48</v>
       </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" t="s">
-        <v>190</v>
-      </c>
-      <c r="D11" t="s">
-        <v>192</v>
-      </c>
-      <c r="E11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F11" t="s">
-        <v>202</v>
+      <c r="A11" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" t="s">
         <v>189</v>
       </c>
-      <c r="C12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D12" t="s">
-        <v>194</v>
-      </c>
       <c r="E12" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3458,15 +3897,15 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4" t="str">
         <f>PERSON!B2</f>
@@ -3479,74 +3918,74 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
         <v>71</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3571,15 +4010,15 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4" t="str">
         <f>PERSON!B2</f>
@@ -3592,47 +4031,47 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3640,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3648,43 +4087,43 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3695,21 +4134,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100A30F3884CD43244294355762AE14FDC0" ma:contentTypeVersion="13" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="d6abdbf5296efb927e779bc42333b79d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c8b53866-fdfd-416a-aee2-e50c3ae941dd" xmlns:ns4="9d433cf1-fba1-428a-9634-baf48b90bf9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cbc3d42f92fe2e49d2b946bcae330cb" ns3:_="" ns4:_="">
     <xsd:import namespace="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
@@ -3932,32 +4356,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A7B083-9D0F-4795-94A6-C1128A2A5DD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3974,4 +4388,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DB Scripts/Components Detail.xlsx
+++ b/DB Scripts/Components Detail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="729" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="10" r:id="rId1"/>
@@ -638,7 +638,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="234">
   <si>
     <t>PERSON</t>
   </si>
@@ -989,9 +989,6 @@
     <t>PREVDOSE</t>
   </si>
   <si>
-    <t>NULL</t>
-  </si>
-  <si>
     <t>Vero, Pfizer, Moderna, Astra</t>
   </si>
   <si>
@@ -1211,9 +1208,6 @@
     <t>The registered injection must follow the space rule of the previous vaccine injection</t>
   </si>
   <si>
-    <t>boolean INJ_Difference(varchar2 PersonalID) --Check the difference between the injections of a person, return 0 if they're all the same, 1 if they're difference</t>
-  </si>
-  <si>
     <t>number REG_SIGNED_NO(varchar2 PersonalID, varchar2 SchedID, number Time) --Set the NO value of the registion</t>
   </si>
   <si>
@@ -1344,6 +1338,9 @@
   </si>
   <si>
     <t>REG_DELETE_RECORD(PersonalID, SchedID) --Canceled a registion</t>
+  </si>
+  <si>
+    <t>boolean INJ_Difference(PersonalID) --Check the difference between the injections of a person, return 0 if they're all the same, 1 if they're difference</t>
   </si>
 </sst>
 </file>
@@ -1903,10 +1900,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1952,65 +1949,65 @@
     <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2036,10 +2033,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2050,18 +2047,18 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2072,7 +2069,7 @@
         <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2083,18 +2080,18 @@
         <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2102,10 +2099,10 @@
         <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2118,22 +2115,22 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2141,10 +2138,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2157,8 +2154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,12 +2168,12 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>100</v>
@@ -2216,7 +2213,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2227,7 +2224,7 @@
         <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
         <v>114</v>
@@ -2236,7 +2233,7 @@
         <v>103</v>
       </c>
       <c r="H9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2249,14 +2246,14 @@
       <c r="C10">
         <v>56</v>
       </c>
-      <c r="D10" t="s">
-        <v>116</v>
+      <c r="D10">
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>112</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2276,7 +2273,7 @@
         <v>112</v>
       </c>
       <c r="H11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2296,7 +2293,7 @@
         <v>111</v>
       </c>
       <c r="H12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2316,7 +2313,7 @@
         <v>112</v>
       </c>
       <c r="H13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2336,7 +2333,7 @@
         <v>111</v>
       </c>
       <c r="H14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2349,14 +2346,14 @@
       <c r="C15">
         <v>21</v>
       </c>
-      <c r="D15" t="s">
-        <v>116</v>
+      <c r="D15">
+        <v>0</v>
       </c>
       <c r="E15" t="s">
         <v>105</v>
       </c>
       <c r="H15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2376,7 +2373,7 @@
         <v>113</v>
       </c>
       <c r="H16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2393,10 +2390,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2413,10 +2410,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2436,7 +2433,7 @@
         <v>111</v>
       </c>
       <c r="H19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2449,11 +2446,11 @@
       <c r="C20">
         <v>21</v>
       </c>
-      <c r="D20" t="s">
-        <v>116</v>
+      <c r="D20">
+        <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2470,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2487,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2500,8 +2497,8 @@
       <c r="C23">
         <v>21</v>
       </c>
-      <c r="D23" t="s">
-        <v>116</v>
+      <c r="D23">
+        <v>0</v>
       </c>
       <c r="E23" t="s">
         <v>111</v>
@@ -2585,11 +2582,11 @@
       <c r="C28">
         <v>28</v>
       </c>
-      <c r="D28" t="s">
-        <v>116</v>
+      <c r="D28">
+        <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2606,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2623,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2640,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2657,27 +2654,27 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2782,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2840,7 +2837,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2944,22 +2941,22 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2967,40 +2964,40 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C21" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3031,10 +3028,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3097,22 +3094,22 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3120,15 +3117,15 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3143,7 +3140,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3156,10 +3153,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3180,7 +3177,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>48</v>
@@ -3204,13 +3201,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3229,39 +3226,39 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F9" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3269,26 +3266,26 @@
         <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3315,10 +3312,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3412,22 +3409,22 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3435,37 +3432,37 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3492,10 +3489,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3525,7 +3522,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -3549,13 +3546,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3637,22 +3634,22 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3660,46 +3657,46 @@
         <v>2</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3714,7 +3711,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3727,10 +3724,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3797,7 +3794,7 @@
         <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3813,64 +3810,64 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>185</v>
-      </c>
       <c r="C12" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3897,10 +3894,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3929,7 +3926,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -3951,41 +3948,41 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4013,7 +4010,7 @@
         <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4092,38 +4089,38 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4134,6 +4131,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100A30F3884CD43244294355762AE14FDC0" ma:contentTypeVersion="13" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="d6abdbf5296efb927e779bc42333b79d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c8b53866-fdfd-416a-aee2-e50c3ae941dd" xmlns:ns4="9d433cf1-fba1-428a-9634-baf48b90bf9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cbc3d42f92fe2e49d2b946bcae330cb" ns3:_="" ns4:_="">
     <xsd:import namespace="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
@@ -4356,22 +4368,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A7B083-9D0F-4795-94A6-C1128A2A5DD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4388,29 +4410,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DB Scripts/Components Detail.xlsx
+++ b/DB Scripts/Components Detail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="729" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="729" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="10" r:id="rId1"/>
@@ -638,7 +638,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="237">
   <si>
     <t>PERSON</t>
   </si>
@@ -935,9 +935,6 @@
     <t>varchar2(4000)</t>
   </si>
   <si>
-    <t>NEXTTIME</t>
-  </si>
-  <si>
     <t>NEXTDOSE</t>
   </si>
   <si>
@@ -995,30 +992,12 @@
     <t>Note</t>
   </si>
   <si>
-    <t>Mũi tiếp theo là liều bổ sung, các mũi trước giống nhau</t>
-  </si>
-  <si>
-    <t>Mũi tiếp theo là liều nhắc lại, các mũi trước giống nhau</t>
-  </si>
-  <si>
-    <t>Mũi tiếp theo là liều nhắc lại, các mũi trước khác nhau</t>
-  </si>
-  <si>
     <t>Sputnik V</t>
   </si>
   <si>
     <t>Moderna, Pfizer</t>
   </si>
   <si>
-    <t>NextDistance</t>
-  </si>
-  <si>
-    <t>Mũi tiếp theo là liều cơ bản, các mũi trước không có</t>
-  </si>
-  <si>
-    <t>Mũi tiếp theo là liều bổ sung, các mũi trước khác nhau</t>
-  </si>
-  <si>
     <t>TYPE</t>
   </si>
   <si>
@@ -1157,9 +1136,6 @@
     <t>Certificate IN (0,1,2)</t>
   </si>
   <si>
-    <t>void Count_Certificate(int Type</t>
-  </si>
-  <si>
     <t>ACCOUNT (ACC)</t>
   </si>
   <si>
@@ -1202,45 +1178,18 @@
     <t>Status in (0,1,2,3)</t>
   </si>
   <si>
-    <t>The vaccine used in the registered schedule must be compitable with the previous vaccine injection (if have)</t>
-  </si>
-  <si>
-    <t>The registered injection must follow the space rule of the previous vaccine injection</t>
-  </si>
-  <si>
     <t>number REG_SIGNED_NO(varchar2 PersonalID, varchar2 SchedID, number Time) --Set the NO value of the registion</t>
   </si>
   <si>
-    <t>SCHED_INC_REG(SchedId, Time) --Increase 1 registion at Time parameter</t>
-  </si>
-  <si>
-    <t>SCHED_DEC_REG(SchedID, Time) --Decrease 1 registion at Time parameter</t>
-  </si>
-  <si>
     <t>INJECTIONNO</t>
   </si>
   <si>
-    <t>ACC_DELETE_RECORD(Username) --Delete an account</t>
-  </si>
-  <si>
     <t>Giới tính: 0 nữ, 1 nam, NULL khác</t>
   </si>
   <si>
     <t>Gender IN (0,1)</t>
   </si>
   <si>
-    <t>PERSON_DELETE_RECORD(PersonalID)</t>
-  </si>
-  <si>
-    <t>VAC_INSERT_RECORD(ID, Name, Technology, Country, Note DEFAULT NULL)</t>
-  </si>
-  <si>
-    <t>VAC_DELETE_RECORD(VaccineID)</t>
-  </si>
-  <si>
-    <t>INJ_DELETE_RECORD(PersonalID, InjNO)</t>
-  </si>
-  <si>
     <t>SchedID is not null</t>
   </si>
   <si>
@@ -1253,12 +1202,6 @@
     <t>Province is not null</t>
   </si>
   <si>
-    <t>ORG_DELETE_RECORD(OrgID)</t>
-  </si>
-  <si>
-    <t>ORG_ANNOUCE(ANNOUNCEMENT Post, varchar2 Province, varchar2 District, varchar2 Town) --Push the announcement to the citizen in the specify area</t>
-  </si>
-  <si>
     <t>OrgID is not null</t>
   </si>
   <si>
@@ -1268,18 +1211,9 @@
     <t>OnDate is not null</t>
   </si>
   <si>
-    <t>ACC_RESET_PASSWORD(Username, VerifyCode) --Reset password of an account</t>
-  </si>
-  <si>
     <t>number PERSON_AGE() --Return the age of the person</t>
   </si>
   <si>
-    <t>ORG_UPDATE_RECORD(ID, Name, Province, District DEFAULT NULL, Town DEFAULT NULL, Street DEFAULT NULL, Note DEFAULT NULL)</t>
-  </si>
-  <si>
-    <t>SCHED_DELETE_RECORD(SchedID)</t>
-  </si>
-  <si>
     <t>Phone -&gt; ACCOUNT(Username)</t>
   </si>
   <si>
@@ -1292,55 +1226,130 @@
     <t>Role DEFAULT NULL,</t>
   </si>
   <si>
-    <t>ACC_CREATE_ORG(number Quantity, varchar2 ProvinceCode) --Create a Quantity of accounts for organizations in a province</t>
-  </si>
-  <si>
-    <t>ACC_INSERT_RECORD(Username, Password, Note DEFAULT NULL) --Create a new personal accoount</t>
-  </si>
-  <si>
-    <t>ACC_UPDATE_PASSWORD(Username, OldPass, NewPass) --Update password of an account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERSON_INSERT_RECORD(ID, LastName DEFAULT NULL, FirstName, Birthday, Gender DEFAULT NULL, HomeTown/Province/District/Town/Street DEFAULT NULL, Email DEFAULT NULL, Guardian/Note DEFAULT NULL) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERSON_UPDATE_RECORD(ID, LastName, FirstName, Gender, HomeTown, Province, District, Town, Street, Email, Guardian, Note) </t>
-  </si>
-  <si>
     <t xml:space="preserve">number INJ_TYPE(PersonalID, InjNO) --Return the type of the injection </t>
   </si>
   <si>
-    <t>INJ_INSERT_RECORD(PersonalID, InjNO, SchedID, Note DEFAULT NULL)</t>
-  </si>
-  <si>
-    <t>ORG_INSERT_RECORD(ID, Name, Province, District, Town, Street, Note DEFAULT NULL)</t>
-  </si>
-  <si>
     <t>number ORG_COUNT_SCHED(OrgID, StartDate, EndDate) --Count the number of schedules were hold by the ORG from StartDate to EndDate. If parameters are blank, counts al</t>
   </si>
   <si>
     <t>number ORG_COUNT_INJ(OrgID, StartDate, EndDate) --Count the number of injections have been done by the ORG from StartDate to EndDate. If parameters are blank, counts all</t>
   </si>
   <si>
-    <t>SCHED_INSERT_RECORD(OrgID, OnDate, VaccineID, Serial, LimitDay, LimitNoon, LitmitNight, Note DEFAULT NULL) --Insert schedule record</t>
-  </si>
-  <si>
     <t>OnDate &gt; SYSDATE</t>
   </si>
   <si>
     <t>0 &lt;= Registered &lt;= Limit</t>
   </si>
   <si>
-    <t>REG_INSERT_VALUE(PersonalID, SchedID, Time) --Set values for registion</t>
-  </si>
-  <si>
     <t>REG_NO_Limit: NO &lt;= the number of Limit due to the register Time</t>
   </si>
   <si>
-    <t>REG_DELETE_RECORD(PersonalID, SchedID) --Canceled a registion</t>
-  </si>
-  <si>
     <t>boolean INJ_Difference(PersonalID) --Check the difference between the injections of a person, return 0 if they're all the same, 1 if they're difference</t>
+  </si>
+  <si>
+    <t>Sputnik V, Pfizer, Moderna</t>
+  </si>
+  <si>
+    <t>ACC_INSERT_RECORD(par_Username, par_Password, par_Note DEFAULT NULL) --Create a new personal accoount</t>
+  </si>
+  <si>
+    <t>ACC_DELETE_RECORD(par_Username) --Delete an account</t>
+  </si>
+  <si>
+    <t>ACC_CREATE_ORG(number par_Quantity, varchar2 par_ProvinceCode) --Create a Quantity of accounts for organizations in a province</t>
+  </si>
+  <si>
+    <t>ACC_UPDATE_PASSWORD(par_Username, par_OldPass, par_NewPass) --Update password of an account</t>
+  </si>
+  <si>
+    <t>ACC_RESET_PASSWORD(par_Username, par_VerifyCode) --Reset password of an account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERSON_INSERT_RECORD(par_ID, par_LastName , par_FirstName, par_Birthday, par_Gender, par_HomeTown, par_Province, par_District, par_Town, par_Street, par_Email, par_Guardian, par_Note DEFAULT NULL) </t>
+  </si>
+  <si>
+    <t>PERSON_DELETE_RECORD(par_PersonalID)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERSON_UPDATE_RECORD(par_ID, par_LastName, par_FirstName, par_Gender, par_HomeTown, par_Province, par_District, par_Town, par_Street, par_Email, par_Guardian, Note DEFAULT NULL) </t>
+  </si>
+  <si>
+    <t>VAC_INSERT_RECORD(par_ID, par_Name, par_Technology, par_Country, par_Note DEFAULT NULL)</t>
+  </si>
+  <si>
+    <t>VAC_DELETE_RECORD(par_VaccineID)</t>
+  </si>
+  <si>
+    <t>INJ_INSERT_RECORD(par_PersonalID, par_InjNO, par_SchedID, par_Note DEFAULT NULL)</t>
+  </si>
+  <si>
+    <t>INJ_DELETE_RECORD(par_PersonalID, par_InjNO)</t>
+  </si>
+  <si>
+    <t>ORG_INSERT_RECORD(par_ID, par_Name, par_Province, par_District, par_Town, par_Street, par_Note DEFAULT NULL)</t>
+  </si>
+  <si>
+    <t>ORG_DELETE_RECORD(par_OrgID)</t>
+  </si>
+  <si>
+    <t>ORG_UPDATE_RECORD(par_ID, par_Name, par_Province, par_District, par_Town, par_Street, par_Note DEFAULT NULL)</t>
+  </si>
+  <si>
+    <t>ORG_ANNOUCE(par_Post, par_Province, par_District, par_Town) --Push the announcement to the citizen in the specify area</t>
+  </si>
+  <si>
+    <t>SCHED_INSERT_RECORD(par_OrgID, par_OnDate, par_VaccineID, par_Serial, par_LimitDay, par_LimitNoon, par_LitmitNight, par_Note DEFAULT NULL) --Insert schedule record</t>
+  </si>
+  <si>
+    <t>SCHED_DELETE_RECORD(par_SchedID)</t>
+  </si>
+  <si>
+    <t>SCHED_INC_REG(par_SchedId, par_Time) --Increase 1 registion at Time parameter</t>
+  </si>
+  <si>
+    <t>SCHED_DEC_REG(par_SchedID, par_Time) --Decrease 1 registion at Time parameter</t>
+  </si>
+  <si>
+    <t>REG_INSERT_VALUE(par_PersonalID, par_SchedID, par_TimeReg) --Set values for registion</t>
+  </si>
+  <si>
+    <t>REG_DELETE_RECORD(par_PersonalID, par_SchedID) --Canceled a registion</t>
+  </si>
+  <si>
+    <t>number COUNT_CERT(par_Type) --Return the number of a certificate type</t>
+  </si>
+  <si>
+    <t>number COUNT_DOSE(par_Dose) --Return the number of a dose type</t>
+  </si>
+  <si>
+    <t>Mũi đang đăng ký là mũi 2 (cơ bản), các mũi trước không có (giống nhau)</t>
+  </si>
+  <si>
+    <t>Mũi đang đăng ký là mũi 4 (nhắc lại), các mũi trước giống nhau</t>
+  </si>
+  <si>
+    <t>Mũi đang đăng ký là mũi 4 (nhắc lại), các mũi trước khác nhau</t>
+  </si>
+  <si>
+    <t>Mũi đang đăng ký là mũi 3 (bổ sung), các mũi trước giống nhau</t>
+  </si>
+  <si>
+    <t>Mũi đang đăng ký là mũi 3 (bổ sung), các mũi trước khác nhau</t>
+  </si>
+  <si>
+    <t>MinDistance</t>
+  </si>
+  <si>
+    <t>MaxDistance</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>REG_VACCINATION_RULE: The registered schedule must follow the rule of vaccination (spacing time and vaccine type)</t>
+  </si>
+  <si>
+    <t>REG_VACCINATION_TARGET: The citizen affected by Covid-19 can complete basic dose after healing. If you have completed basic dose before affected by Covid-19, it doesn't necessary to make an additional dose. Summary: citizen can't do vaccination during affected time, and can do vaccination immedietly after healing but still follow the vaccination rule about spacing time and vaccine type</t>
   </si>
 </sst>
 </file>
@@ -1888,7 +1897,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1900,10 +1909,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1949,65 +1958,65 @@
     <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E9" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E10" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="E12" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="E13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2033,10 +2042,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2047,18 +2056,18 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2069,7 +2078,7 @@
         <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2080,18 +2089,18 @@
         <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2099,10 +2108,10 @@
         <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2115,22 +2124,22 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2138,10 +2147,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2152,34 +2161,35 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>56</v>
       </c>
@@ -2187,494 +2197,538 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
         <v>101</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" t="s">
         <v>102</v>
       </c>
-      <c r="C9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10">
         <v>56</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E10">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11">
         <v>28</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12">
         <v>28</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
         <v>111</v>
       </c>
-      <c r="H12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="I13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14">
+        <v>28</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15">
+        <v>90</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16">
+        <v>90</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C13">
-        <v>90</v>
-      </c>
-      <c r="D13">
+      <c r="C17">
+        <v>21</v>
+      </c>
+      <c r="E17">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F17" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18">
+        <v>28</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
         <v>112</v>
       </c>
-      <c r="H13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14">
-        <v>90</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15">
-        <v>21</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16">
-        <v>28</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>2</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="6">
-        <v>90</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18">
-        <v>90</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>116</v>
-      </c>
-      <c r="H18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19">
         <v>90</v>
       </c>
-      <c r="D19">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>115</v>
+      </c>
+      <c r="I19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20">
+        <v>90</v>
+      </c>
+      <c r="E20">
         <v>1</v>
       </c>
-      <c r="E19" t="s">
-        <v>111</v>
-      </c>
-      <c r="H19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="F20" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22">
+        <v>28</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23">
+        <v>90</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24">
+        <v>90</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
         <v>106</v>
       </c>
-      <c r="C20">
+      <c r="C25">
         <v>21</v>
       </c>
-      <c r="D20">
+      <c r="E25">
         <v>0</v>
       </c>
-      <c r="E20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="F25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>2</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B26" t="s">
         <v>106</v>
       </c>
-      <c r="C21">
+      <c r="C26">
         <v>28</v>
       </c>
-      <c r="D21">
+      <c r="E26">
         <v>0</v>
       </c>
-      <c r="E21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="F26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27">
+        <v>28</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>3</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B28" t="s">
         <v>106</v>
       </c>
-      <c r="C22">
+      <c r="C28">
         <v>90</v>
       </c>
-      <c r="D22">
+      <c r="E28">
         <v>0</v>
       </c>
-      <c r="E22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="F28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29">
+        <v>90</v>
+      </c>
+      <c r="E29">
         <v>1</v>
       </c>
-      <c r="B23" t="s">
+      <c r="F29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
         <v>107</v>
-      </c>
-      <c r="C23">
-        <v>21</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24">
-        <v>28</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25">
-        <v>28</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26">
-        <v>90</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27">
-        <v>90</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28">
-        <v>28</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29">
-        <v>28</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>108</v>
       </c>
       <c r="C30">
         <v>28</v>
       </c>
-      <c r="D30">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31">
+        <v>28</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32">
+        <v>28</v>
+      </c>
+      <c r="E32">
         <v>1</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33">
+        <v>90</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34">
+        <v>90</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>3</v>
-      </c>
-      <c r="B31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31">
-        <v>90</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>3</v>
-      </c>
-      <c r="B32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32">
-        <v>90</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>131</v>
+      <c r="C36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2687,7 +2741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A17:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -2759,7 +2813,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2779,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2837,7 +2891,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2941,22 +2995,22 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2964,40 +3018,40 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E18" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F18" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E19" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="E20" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C21" s="8" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3015,7 +3069,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3028,10 +3082,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3094,22 +3148,22 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3117,15 +3171,15 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E9" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3140,7 +3194,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3153,10 +3207,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3177,7 +3231,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>48</v>
@@ -3201,13 +3255,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3226,39 +3280,39 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E9" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F9" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3266,26 +3320,26 @@
         <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E10" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="F10" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3299,7 +3353,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3312,10 +3366,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3409,22 +3463,22 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3432,37 +3486,37 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C11" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="E11" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F11" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="E12" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="F12" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3476,7 +3530,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3489,10 +3543,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3500,10 +3554,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3522,7 +3576,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -3546,13 +3600,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3634,22 +3688,22 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3657,46 +3711,46 @@
         <v>2</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C17" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="E17" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="E19" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3711,7 +3765,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3724,10 +3778,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3794,7 +3848,7 @@
         <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3810,64 +3864,64 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12" t="s">
-        <v>232</v>
+        <v>178</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3881,7 +3935,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3894,10 +3948,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3926,7 +3980,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -3948,41 +4002,44 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E8" t="s">
-        <v>172</v>
+        <v>163</v>
+      </c>
+      <c r="F8" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>171</v>
+        <v>164</v>
+      </c>
+      <c r="F9" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4010,7 +4067,7 @@
         <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4089,38 +4146,38 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4131,21 +4188,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100A30F3884CD43244294355762AE14FDC0" ma:contentTypeVersion="13" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="d6abdbf5296efb927e779bc42333b79d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c8b53866-fdfd-416a-aee2-e50c3ae941dd" xmlns:ns4="9d433cf1-fba1-428a-9634-baf48b90bf9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cbc3d42f92fe2e49d2b946bcae330cb" ns3:_="" ns4:_="">
     <xsd:import namespace="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
@@ -4368,32 +4410,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A7B083-9D0F-4795-94A6-C1128A2A5DD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4410,4 +4442,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DB Scripts/Components Detail.xlsx
+++ b/DB Scripts/Components Detail.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Projects\VACCINATION\DB Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hệ quản trị CSDL\java_IS216.M21_4\DB Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8E2431-DE9D-4893-BBC0-27F7C5EE7568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="10" r:id="rId1"/>
@@ -25,22 +26,32 @@
     <sheet name="CONSTRAINT" sheetId="14" r:id="rId11"/>
     <sheet name="Vaccine Combination" sheetId="2" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Đặng Nghiệp Cường</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0" shapeId="0">
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -75,12 +86,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Đặng Nghiệp Cường</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -115,12 +126,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Đặng Nghiệp Cường</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -135,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -154,12 +165,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Đặng Nghiệp Cường</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -179,12 +190,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Đặng Nghiệp Cường</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -199,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -214,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0" shapeId="0">
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -229,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -244,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -264,12 +275,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Đặng Nghiệp Cường</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -284,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -299,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -314,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0" shapeId="0">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -334,12 +345,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Đặng Nghiệp Cường</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -354,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -374,12 +385,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Đặng Nghiệp Cường</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -394,7 +405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -409,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1020,7 +1031,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1524,21 +1535,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>184</v>
       </c>
@@ -1546,7 +1557,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -1554,7 +1565,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1562,7 +1573,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1570,7 +1581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -1578,7 +1589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>131</v>
       </c>
@@ -1598,7 +1609,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -1609,12 +1620,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>138</v>
       </c>
@@ -1626,20 +1637,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>190</v>
       </c>
@@ -1647,7 +1658,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1658,7 +1669,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>163</v>
       </c>
@@ -1669,7 +1680,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -1680,7 +1691,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -1691,7 +1702,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>177</v>
       </c>
@@ -1702,7 +1713,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -1713,7 +1724,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1721,7 +1732,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>131</v>
       </c>
@@ -1741,7 +1752,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1759,27 +1770,27 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>167</v>
       </c>
@@ -1787,7 +1798,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
@@ -1795,7 +1806,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -1803,7 +1814,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -1811,7 +1822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -1819,12 +1830,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -1844,7 +1855,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1864,7 +1875,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1884,7 +1895,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1904,7 +1915,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1924,7 +1935,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1944,7 +1955,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1964,7 +1975,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1984,7 +1995,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>2</v>
       </c>
@@ -2004,7 +2015,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2024,7 +2035,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2044,7 +2055,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2061,7 +2072,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2078,7 +2089,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2095,7 +2106,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2112,7 +2123,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2129,7 +2140,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2146,7 +2157,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2163,7 +2174,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2180,7 +2191,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2197,7 +2208,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2214,7 +2225,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2231,7 +2242,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2248,7 +2259,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2265,7 +2276,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>131</v>
       </c>
@@ -2292,30 +2303,30 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A17:B22"/>
   <sheetViews>
     <sheetView topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2323,7 +2334,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2331,7 +2342,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4</v>
       </c>
@@ -2339,7 +2350,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>7</v>
       </c>
@@ -2347,7 +2358,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>11</v>
       </c>
@@ -2363,24 +2374,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2391,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2402,7 +2415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2413,7 +2426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2424,7 +2437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2435,7 +2448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2446,7 +2459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2457,7 +2470,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2468,7 +2481,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2479,7 +2492,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2490,7 +2503,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2501,7 +2514,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2512,7 +2525,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -2523,7 +2536,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -2534,7 +2547,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
@@ -2545,7 +2558,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>131</v>
       </c>
@@ -2565,7 +2578,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2579,22 +2592,22 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C19" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C21" s="8" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" s="1"/>
     </row>
   </sheetData>
@@ -2605,22 +2618,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>192</v>
       </c>
@@ -2631,7 +2644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2642,7 +2655,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -2653,7 +2666,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -2664,7 +2677,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -2675,7 +2688,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -2686,7 +2699,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>131</v>
       </c>
@@ -2706,7 +2719,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2722,22 +2735,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>185</v>
       </c>
@@ -2748,7 +2761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
@@ -2761,7 +2774,7 @@
         <v>Mã định danh cá nhân 12 chữ số</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>167</v>
       </c>
@@ -2772,7 +2785,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>51</v>
       </c>
@@ -2785,7 +2798,7 @@
         <v>Mã lịch tiêm tạo thành từ ID đvtc + các số ngày tháng năm viết liền nhau, 2 ký tự còn lại là chữ số để phân biệt các lịch tiêm trong cùng ngày của đơn vị</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>129</v>
       </c>
@@ -2796,7 +2809,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -2807,10 +2820,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>131</v>
       </c>
@@ -2830,7 +2843,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -2847,7 +2860,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2865,22 +2878,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>186</v>
       </c>
@@ -2891,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2902,7 +2915,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -2913,7 +2926,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>PERSON!A8</f>
         <v>PROVINCE</v>
@@ -2927,7 +2940,7 @@
         <v>Tên tỉnh/thành phố TW</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>PERSON!A9</f>
         <v>DISTRICT</v>
@@ -2941,7 +2954,7 @@
         <v>Tên quận/huyện/thị xã</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>PERSON!A10</f>
         <v>TOWN</v>
@@ -2955,7 +2968,7 @@
         <v>Tên xã/phường/thị trấn</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2966,7 +2979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -2977,7 +2990,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>131</v>
       </c>
@@ -2997,7 +3010,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -3008,7 +3021,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
         <v>160</v>
       </c>
@@ -3020,22 +3033,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>187</v>
       </c>
@@ -3043,7 +3056,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3054,7 +3067,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>55</v>
       </c>
@@ -3068,7 +3081,7 @@
 6 chữ số còn lại dùng để phân biệt các đơn vị trong cùng một xã</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>176</v>
       </c>
@@ -3079,7 +3092,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>57</v>
       </c>
@@ -3092,7 +3105,7 @@
         <v>Mã vaccine (chưa nghĩ ra cách đặt)</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>161</v>
       </c>
@@ -3103,7 +3116,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -3114,7 +3127,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -3125,7 +3138,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -3136,7 +3149,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -3147,7 +3160,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -3158,7 +3171,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -3169,7 +3182,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -3180,7 +3193,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>131</v>
       </c>
@@ -3200,7 +3213,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>2</v>
       </c>
@@ -3214,7 +3227,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>163</v>
       </c>
@@ -3230,20 +3243,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -3251,7 +3264,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
@@ -3264,7 +3277,7 @@
         <v>Mã định danh cá nhân 12 chữ số</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>51</v>
       </c>
@@ -3277,7 +3290,7 @@
         <v>Mã lịch tiêm tạo thành từ ID đvtc + các số ngày tháng năm viết liền nhau, 2 ký tự còn lại là chữ số để phân biệt các lịch tiêm trong cùng ngày của đơn vị</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -3288,7 +3301,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -3299,7 +3312,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -3310,7 +3323,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -3318,7 +3331,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -3336,22 +3349,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>189</v>
       </c>
@@ -3359,7 +3372,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
@@ -3372,7 +3385,7 @@
         <v>Mã định danh cá nhân 12 chữ số</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -3383,7 +3396,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>194</v>
       </c>
@@ -3394,7 +3407,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -3405,7 +3418,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>131</v>
       </c>
@@ -3425,7 +3438,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>149</v>
       </c>
@@ -3439,7 +3452,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>182</v>
       </c>
@@ -3451,20 +3464,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
@@ -3472,7 +3485,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
@@ -3485,7 +3498,7 @@
         <v>Mã định danh cá nhân 12 chữ số</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -3496,7 +3509,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -3513,7 +3526,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -3530,7 +3543,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D6">
         <v>1</v>
       </c>
@@ -3538,7 +3551,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7">
         <v>1</v>
       </c>
@@ -3546,7 +3559,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>131</v>
       </c>
@@ -3566,7 +3579,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>149</v>
       </c>
@@ -3577,7 +3590,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>179</v>
       </c>
@@ -3590,6 +3603,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100A30F3884CD43244294355762AE14FDC0" ma:contentTypeVersion="13" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="d6abdbf5296efb927e779bc42333b79d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c8b53866-fdfd-416a-aee2-e50c3ae941dd" xmlns:ns4="9d433cf1-fba1-428a-9634-baf48b90bf9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cbc3d42f92fe2e49d2b946bcae330cb" ns3:_="" ns4:_="">
     <xsd:import namespace="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
@@ -3812,22 +3840,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A7B083-9D0F-4795-94A6-C1128A2A5DD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3844,29 +3882,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DB Scripts/Components Detail.xlsx
+++ b/DB Scripts/Components Detail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="729" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="729" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="10" r:id="rId1"/>
@@ -1154,9 +1154,6 @@
     <t>CERTIFICATE (CERT)</t>
   </si>
   <si>
-    <t>ANNOUNCEMENT (ANNOUNCE)</t>
-  </si>
-  <si>
     <t>CONSTRAINT (CONST)</t>
   </si>
   <si>
@@ -1350,6 +1347,9 @@
   </si>
   <si>
     <t>REG_VACCINATION_TARGET: The citizen affected by Covid-19 can complete basic dose after healing. If you have completed basic dose before affected by Covid-19, it doesn't necessary to make an additional dose. Summary: citizen can't do vaccination during affected time, and can do vaccination immedietly after healing but still follow the vaccination rule about spacing time and vaccine type</t>
+  </si>
+  <si>
+    <t>ANNOUNCEMENT (ANN)</t>
   </si>
 </sst>
 </file>
@@ -1984,7 +1984,7 @@
         <v>135</v>
       </c>
       <c r="E9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1992,7 +1992,7 @@
         <v>129</v>
       </c>
       <c r="E10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2000,23 +2000,23 @@
         <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2030,7 +2030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2042,7 +2042,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>236</v>
       </c>
       <c r="B1" t="s">
         <v>143</v>
@@ -2163,7 +2163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2178,12 +2178,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>99</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
         <v>99</v>
@@ -2234,10 +2234,10 @@
         <v>101</v>
       </c>
       <c r="C9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" t="s">
         <v>232</v>
-      </c>
-      <c r="D9" t="s">
-        <v>233</v>
       </c>
       <c r="E9" t="s">
         <v>113</v>
@@ -2260,7 +2260,7 @@
         <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>111</v>
       </c>
       <c r="I10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2289,7 +2289,7 @@
         <v>111</v>
       </c>
       <c r="I11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2309,7 +2309,7 @@
         <v>110</v>
       </c>
       <c r="I12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2329,7 +2329,7 @@
         <v>111</v>
       </c>
       <c r="I13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2349,7 +2349,7 @@
         <v>110</v>
       </c>
       <c r="I14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2369,7 +2369,7 @@
         <v>111</v>
       </c>
       <c r="I15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2389,7 +2389,7 @@
         <v>110</v>
       </c>
       <c r="I16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2409,7 +2409,7 @@
         <v>104</v>
       </c>
       <c r="I17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2429,7 +2429,7 @@
         <v>112</v>
       </c>
       <c r="I18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2449,7 +2449,7 @@
         <v>115</v>
       </c>
       <c r="I19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2469,7 +2469,7 @@
         <v>110</v>
       </c>
       <c r="I20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2891,7 +2891,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3018,16 +3018,16 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3038,15 +3038,15 @@
         <v>133</v>
       </c>
       <c r="E19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -3082,7 +3082,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
         <v>142</v>
@@ -3174,12 +3174,12 @@
         <v>136</v>
       </c>
       <c r="E9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3309,10 +3309,10 @@
         <v>139</v>
       </c>
       <c r="E9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3326,20 +3326,20 @@
         <v>140</v>
       </c>
       <c r="E10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3486,37 +3486,37 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3714,13 +3714,13 @@
         <v>147</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>199</v>
-      </c>
       <c r="E16" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3731,26 +3731,26 @@
         <v>148</v>
       </c>
       <c r="C17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3890,38 +3890,38 @@
         <v>131</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>176</v>
-      </c>
       <c r="C12" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3980,7 +3980,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -4031,7 +4031,7 @@
         <v>163</v>
       </c>
       <c r="F8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4039,7 +4039,7 @@
         <v>164</v>
       </c>
       <c r="F9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4188,6 +4188,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100A30F3884CD43244294355762AE14FDC0" ma:contentTypeVersion="13" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="d6abdbf5296efb927e779bc42333b79d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c8b53866-fdfd-416a-aee2-e50c3ae941dd" xmlns:ns4="9d433cf1-fba1-428a-9634-baf48b90bf9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cbc3d42f92fe2e49d2b946bcae330cb" ns3:_="" ns4:_="">
     <xsd:import namespace="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
@@ -4410,22 +4425,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A7B083-9D0F-4795-94A6-C1128A2A5DD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4442,29 +4467,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DB Scripts/Components Detail.xlsx
+++ b/DB Scripts/Components Detail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="729" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="729" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="10" r:id="rId1"/>
@@ -638,7 +638,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="243">
   <si>
     <t>PERSON</t>
   </si>
@@ -1350,13 +1350,31 @@
   </si>
   <si>
     <t>ANNOUNCEMENT (ANN)</t>
+  </si>
+  <si>
+    <t>DoseType</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Mũi đang đăng ký là mũi 3 (nhắc lại), các mũi trước khác nhau</t>
+  </si>
+  <si>
+    <t>Mũi đang đăng ký là mũi 3 (nhắc lại), các mũi trước giống nhau</t>
+  </si>
+  <si>
+    <t>Additional</t>
+  </si>
+  <si>
+    <t>Booster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1425,6 +1443,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1463,11 +1488,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1897,7 +1922,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2030,7 +2055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2161,43 +2186,47 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -2205,7 +2234,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -2213,7 +2242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -2221,12 +2250,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>100</v>
       </c>
@@ -2234,500 +2263,569 @@
         <v>101</v>
       </c>
       <c r="C9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" t="s">
         <v>231</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>232</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>113</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>102</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>103</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10">
         <v>56</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>233</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>111</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>103</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D11">
         <v>28</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>111</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>103</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12">
         <v>28</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>110</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
         <v>103</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13">
         <v>28</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>111</v>
       </c>
-      <c r="I13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>103</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14">
         <v>28</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>110</v>
       </c>
-      <c r="I14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>103</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15">
         <v>90</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>111</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16">
         <v>90</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>110</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17">
-        <v>21</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18">
-        <v>28</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>112</v>
-      </c>
-      <c r="I18" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19">
-        <v>90</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>115</v>
-      </c>
-      <c r="I19" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20">
-        <v>90</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>110</v>
-      </c>
-      <c r="I20" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21">
+        <v>104</v>
+      </c>
+      <c r="C21" t="s">
+        <v>238</v>
+      </c>
+      <c r="D21">
         <v>21</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0</v>
       </c>
-      <c r="F21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>104</v>
+      </c>
+      <c r="J21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
+        <v>238</v>
+      </c>
+      <c r="D22">
         <v>28</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0</v>
       </c>
-      <c r="F22" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>112</v>
+      </c>
+      <c r="J22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23">
+        <v>104</v>
+      </c>
+      <c r="C23" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23">
         <v>90</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0</v>
       </c>
-      <c r="F23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>115</v>
+      </c>
+      <c r="J23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24">
+        <v>104</v>
+      </c>
+      <c r="C24" t="s">
+        <v>241</v>
+      </c>
+      <c r="D24">
         <v>90</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>1</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25">
+        <v>105</v>
+      </c>
+      <c r="D25">
         <v>21</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0</v>
       </c>
-      <c r="F25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26">
+        <v>105</v>
+      </c>
+      <c r="D26">
         <v>28</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0</v>
       </c>
-      <c r="F26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27">
-        <v>28</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="D27">
+        <v>90</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28">
+        <v>105</v>
+      </c>
+      <c r="D28">
         <v>90</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
         <v>106</v>
       </c>
-      <c r="C29">
-        <v>90</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="D29">
+        <v>21</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30">
+        <v>106</v>
+      </c>
+      <c r="D30">
         <v>28</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0</v>
       </c>
-      <c r="F30" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31">
+        <v>106</v>
+      </c>
+      <c r="D31">
         <v>28</v>
       </c>
-      <c r="E31">
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32">
+        <v>90</v>
+      </c>
+      <c r="F32">
         <v>0</v>
       </c>
-      <c r="F31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>2</v>
-      </c>
-      <c r="B32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32">
-        <v>28</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33">
+        <v>106</v>
+      </c>
+      <c r="D33">
         <v>90</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s">
         <v>107</v>
       </c>
-      <c r="C34">
+      <c r="D34">
+        <v>28</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35">
+        <v>28</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36">
+        <v>28</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37">
         <v>90</v>
       </c>
-      <c r="E34">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38">
+        <v>90</v>
+      </c>
+      <c r="F38">
         <v>1</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G38" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1" t="s">
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2813,7 +2911,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3013,14 +3111,14 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="10" t="s">
         <v>132</v>
       </c>
       <c r="E18" t="s">
@@ -3034,7 +3132,7 @@
       <c r="B19" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="10" t="s">
         <v>133</v>
       </c>
       <c r="E19" t="s">
@@ -3049,8 +3147,8 @@
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C21" s="8" t="s">
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C21" s="10" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3194,7 +3292,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3352,8 +3450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3530,7 +3628,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3707,16 +3805,16 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>198</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -3724,10 +3822,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>148</v>
       </c>
       <c r="C17" t="s">
@@ -3883,39 +3981,39 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4188,21 +4286,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100A30F3884CD43244294355762AE14FDC0" ma:contentTypeVersion="13" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="d6abdbf5296efb927e779bc42333b79d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c8b53866-fdfd-416a-aee2-e50c3ae941dd" xmlns:ns4="9d433cf1-fba1-428a-9634-baf48b90bf9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cbc3d42f92fe2e49d2b946bcae330cb" ns3:_="" ns4:_="">
     <xsd:import namespace="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
@@ -4425,32 +4508,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A7B083-9D0F-4795-94A6-C1128A2A5DD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4467,4 +4540,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DB Scripts/Components Detail.xlsx
+++ b/DB Scripts/Components Detail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="729" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="729" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="10" r:id="rId1"/>
@@ -3167,7 +3167,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3450,7 +3450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -4032,13 +4032,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
@@ -4286,6 +4286,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100A30F3884CD43244294355762AE14FDC0" ma:contentTypeVersion="13" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="d6abdbf5296efb927e779bc42333b79d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c8b53866-fdfd-416a-aee2-e50c3ae941dd" xmlns:ns4="9d433cf1-fba1-428a-9634-baf48b90bf9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cbc3d42f92fe2e49d2b946bcae330cb" ns3:_="" ns4:_="">
     <xsd:import namespace="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
@@ -4508,22 +4523,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A7B083-9D0F-4795-94A6-C1128A2A5DD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4540,29 +4565,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DB Scripts/Components Detail.xlsx
+++ b/DB Scripts/Components Detail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="729" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="729" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="10" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <sheet name="HEALTH" sheetId="9" r:id="rId9"/>
     <sheet name="ANNOUCEMENT" sheetId="13" r:id="rId10"/>
     <sheet name="CONSTRAINT" sheetId="14" r:id="rId11"/>
-    <sheet name="Vaccine Combination" sheetId="2" r:id="rId12"/>
+    <sheet name="Insert Data" sheetId="15" r:id="rId12"/>
+    <sheet name="Vaccine Combination" sheetId="2" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -493,7 +494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -508,7 +509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -523,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -638,7 +639,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="248">
   <si>
     <t>PERSON</t>
   </si>
@@ -1277,9 +1278,6 @@
     <t>VAC_DELETE_RECORD(par_VaccineID)</t>
   </si>
   <si>
-    <t>INJ_INSERT_RECORD(par_PersonalID, par_InjNO, par_SchedID, par_Note DEFAULT NULL)</t>
-  </si>
-  <si>
     <t>INJ_DELETE_RECORD(par_PersonalID, par_InjNO)</t>
   </si>
   <si>
@@ -1368,6 +1366,24 @@
   </si>
   <si>
     <t>Booster</t>
+  </si>
+  <si>
+    <t>CONSTRAINT</t>
+  </si>
+  <si>
+    <t>nttnnt</t>
+  </si>
+  <si>
+    <t>REG_UPDATE_TIME(par_PersonalID, par_SchedID, par_Time) --Change time of a registion</t>
+  </si>
+  <si>
+    <t>REG_UPDATE_IMAGE(par_PersonalID, par_SchedID, par_Img) --Update a vaccination paper signed by the shecd-holding ORG</t>
+  </si>
+  <si>
+    <t>REG_UPDATE_STATUS(par_PersonalID, par_SchedID, par_Status) --Update a registion status</t>
+  </si>
+  <si>
+    <t>INJ_INSERT_RECORD(par_PersonalID, par_SchedID, par_Note DEFAULT NULL)</t>
   </si>
 </sst>
 </file>
@@ -1477,7 +1493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1493,6 +1509,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1922,7 +1939,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2067,7 +2084,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B1" t="s">
         <v>143</v>
@@ -2188,8 +2205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2228,7 +2245,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B4" t="s">
         <v>99</v>
@@ -2263,13 +2280,13 @@
         <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" t="s">
         <v>231</v>
-      </c>
-      <c r="E9" t="s">
-        <v>232</v>
       </c>
       <c r="F9" t="s">
         <v>113</v>
@@ -2289,13 +2306,13 @@
         <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D10">
         <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2304,7 +2321,7 @@
         <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2315,7 +2332,7 @@
         <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D11">
         <v>28</v>
@@ -2327,7 +2344,7 @@
         <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2338,7 +2355,7 @@
         <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D12">
         <v>28</v>
@@ -2350,7 +2367,7 @@
         <v>110</v>
       </c>
       <c r="J12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2361,7 +2378,7 @@
         <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D13">
         <v>28</v>
@@ -2373,7 +2390,7 @@
         <v>111</v>
       </c>
       <c r="J13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2384,7 +2401,7 @@
         <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D14">
         <v>28</v>
@@ -2396,7 +2413,7 @@
         <v>110</v>
       </c>
       <c r="J14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2407,7 +2424,7 @@
         <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D15">
         <v>90</v>
@@ -2419,7 +2436,7 @@
         <v>111</v>
       </c>
       <c r="J15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2430,7 +2447,7 @@
         <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D16">
         <v>90</v>
@@ -2442,7 +2459,7 @@
         <v>110</v>
       </c>
       <c r="J16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2485,7 +2502,7 @@
         <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D21">
         <v>21</v>
@@ -2497,7 +2514,7 @@
         <v>104</v>
       </c>
       <c r="J21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2508,7 +2525,7 @@
         <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D22">
         <v>28</v>
@@ -2520,7 +2537,7 @@
         <v>112</v>
       </c>
       <c r="J22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2531,7 +2548,7 @@
         <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D23">
         <v>90</v>
@@ -2543,7 +2560,7 @@
         <v>115</v>
       </c>
       <c r="J23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2554,7 +2571,7 @@
         <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D24">
         <v>90</v>
@@ -2566,7 +2583,7 @@
         <v>110</v>
       </c>
       <c r="J24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2837,9 +2854,583 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3">
+        <v>56</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D8">
+        <v>90</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9">
+        <v>90</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15">
+        <v>28</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16">
+        <v>90</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D17">
+        <v>90</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19">
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20">
+        <v>90</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21">
+        <v>90</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23">
+        <v>28</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24">
+        <v>28</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25">
+        <v>90</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26">
+        <v>90</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27">
+        <v>28</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28">
+        <v>28</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30">
+        <v>90</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31">
+        <v>90</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A17:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="J26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -3291,8 +3882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3407,7 +3998,7 @@
         <v>139</v>
       </c>
       <c r="E9" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="F9" t="s">
         <v>200</v>
@@ -3424,7 +4015,7 @@
         <v>140</v>
       </c>
       <c r="E10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F10" t="s">
         <v>194</v>
@@ -3451,7 +4042,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3590,7 +4181,7 @@
         <v>184</v>
       </c>
       <c r="E11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F11" t="s">
         <v>195</v>
@@ -3601,7 +4192,7 @@
         <v>185</v>
       </c>
       <c r="E12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F12" t="s">
         <v>196</v>
@@ -3609,12 +4200,12 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3627,8 +4218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E19" sqref="E18:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3818,7 +4409,7 @@
         <v>198</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3832,7 +4423,7 @@
         <v>186</v>
       </c>
       <c r="E17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3840,7 +4431,7 @@
         <v>187</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3848,7 +4439,7 @@
         <v>188</v>
       </c>
       <c r="E19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3860,10 +4451,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3909,122 +4500,145 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D13" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>235</v>
+      <c r="E14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4032,7 +4646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -4129,7 +4743,7 @@
         <v>163</v>
       </c>
       <c r="F8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4137,7 +4751,7 @@
         <v>164</v>
       </c>
       <c r="F9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4286,21 +4900,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100A30F3884CD43244294355762AE14FDC0" ma:contentTypeVersion="13" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="d6abdbf5296efb927e779bc42333b79d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c8b53866-fdfd-416a-aee2-e50c3ae941dd" xmlns:ns4="9d433cf1-fba1-428a-9634-baf48b90bf9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cbc3d42f92fe2e49d2b946bcae330cb" ns3:_="" ns4:_="">
     <xsd:import namespace="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
@@ -4523,32 +5122,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A7B083-9D0F-4795-94A6-C1128A2A5DD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4565,4 +5154,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DB Scripts/Components Detail.xlsx
+++ b/DB Scripts/Components Detail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="729" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="729" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="10" r:id="rId1"/>
@@ -493,7 +493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -508,7 +508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -523,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -638,7 +638,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="243">
   <si>
     <t>PERSON</t>
   </si>
@@ -863,9 +863,6 @@
     <t>Chứng nhận: 0 đỏ, 1 vàng, 2 xanh</t>
   </si>
   <si>
-    <t>HEALTH</t>
-  </si>
-  <si>
     <t>Tình trạng sức khỏe</t>
   </si>
   <si>
@@ -998,12 +995,6 @@
     <t>Moderna, Pfizer</t>
   </si>
   <si>
-    <t>TYPE</t>
-  </si>
-  <si>
-    <t>0 (mũi cơ bản), 1 (mũi bổ sung), 2 (mũi nhắc lại)</t>
-  </si>
-  <si>
     <t>PRIMARY KEY</t>
   </si>
   <si>
@@ -1133,9 +1124,6 @@
     <t>Dose IN (1,2,3,4)</t>
   </si>
   <si>
-    <t>Certificate IN (0,1,2)</t>
-  </si>
-  <si>
     <t>ACCOUNT (ACC)</t>
   </si>
   <si>
@@ -1154,9 +1142,6 @@
     <t>CERTIFICATE (CERT)</t>
   </si>
   <si>
-    <t>CONSTRAINT (CONST)</t>
-  </si>
-  <si>
     <t>VACCINE (VAC)</t>
   </si>
   <si>
@@ -1368,6 +1353,21 @@
   </si>
   <si>
     <t>Booster</t>
+  </si>
+  <si>
+    <t>CertType IN (0,1,2)</t>
+  </si>
+  <si>
+    <t>PreDose in (0,1)</t>
+  </si>
+  <si>
+    <t>PARAMETER (PAR)</t>
+  </si>
+  <si>
+    <t>Basic, Booster, Repeat</t>
+  </si>
+  <si>
+    <t>HEALTH (HEAL)</t>
   </si>
 </sst>
 </file>
@@ -1477,7 +1477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1493,6 +1493,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1934,15 +1936,15 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>29</v>
@@ -1966,7 +1968,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -1983,65 +1985,65 @@
     <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2056,7 +2058,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2067,10 +2069,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2081,62 +2083,62 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2149,22 +2151,22 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2172,10 +2174,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2186,15 +2188,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -2203,21 +2205,21 @@
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>56</v>
       </c>
@@ -2226,278 +2228,246 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E17" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" t="s">
         <v>101</v>
       </c>
-      <c r="C9" t="s">
-        <v>237</v>
-      </c>
-      <c r="D9" t="s">
-        <v>231</v>
-      </c>
-      <c r="E9" t="s">
-        <v>232</v>
-      </c>
-      <c r="F9" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" t="s">
-        <v>102</v>
-      </c>
-      <c r="J9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" t="s">
-        <v>238</v>
-      </c>
-      <c r="D10">
-        <v>56</v>
-      </c>
-      <c r="E10" t="s">
-        <v>233</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>111</v>
-      </c>
-      <c r="J10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" t="s">
-        <v>238</v>
-      </c>
-      <c r="D11">
-        <v>28</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>111</v>
-      </c>
-      <c r="J11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" t="s">
-        <v>238</v>
-      </c>
-      <c r="D12">
-        <v>28</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>110</v>
-      </c>
-      <c r="J12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" t="s">
-        <v>238</v>
-      </c>
-      <c r="D13">
-        <v>28</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>111</v>
-      </c>
-      <c r="J13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" t="s">
-        <v>238</v>
-      </c>
-      <c r="D14">
-        <v>28</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>110</v>
-      </c>
-      <c r="J14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D15">
-        <v>90</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>111</v>
-      </c>
-      <c r="J15" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" t="s">
-        <v>242</v>
-      </c>
-      <c r="D16">
-        <v>90</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>110</v>
-      </c>
-      <c r="J16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>103</v>
+      <c r="J17" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="C18" t="s">
+        <v>233</v>
+      </c>
+      <c r="D18">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>228</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>110</v>
+      </c>
+      <c r="J18" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="C19" t="s">
+        <v>233</v>
+      </c>
+      <c r="D19">
+        <v>28</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D20">
+        <v>28</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J21" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2505,22 +2475,22 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D22">
         <v>28</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J22" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2528,10 +2498,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D23">
         <v>90</v>
@@ -2540,10 +2510,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J23" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2551,10 +2521,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D24">
         <v>90</v>
@@ -2563,78 +2533,42 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J24" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25">
-        <v>21</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26">
-        <v>28</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27">
-        <v>90</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28">
-        <v>90</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2642,7 +2576,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="C29" t="s">
+        <v>233</v>
       </c>
       <c r="D29">
         <v>21</v>
@@ -2651,7 +2588,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>110</v>
+        <v>103</v>
+      </c>
+      <c r="J29" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2659,7 +2599,10 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="C30" t="s">
+        <v>233</v>
       </c>
       <c r="D30">
         <v>28</v>
@@ -2668,24 +2611,33 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="J30" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="C31" t="s">
+        <v>236</v>
       </c>
       <c r="D31">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>110</v>
+        <v>114</v>
+      </c>
+      <c r="J31" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2693,41 +2645,47 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="C32" t="s">
+        <v>236</v>
       </c>
       <c r="D32">
         <v>90</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="J32" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D33">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D34">
         <v>28</v>
@@ -2736,97 +2694,233 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D35">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D36">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D37">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38">
+        <v>28</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39">
+        <v>28</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>3</v>
       </c>
-      <c r="B38" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38">
+      <c r="B40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40">
         <v>90</v>
       </c>
-      <c r="F38">
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41">
+        <v>90</v>
+      </c>
+      <c r="F41">
         <v>1</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42">
+        <v>28</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43">
+        <v>28</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44">
+        <v>28</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45">
+        <v>90</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46">
+        <v>90</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="B48" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2856,7 +2950,7 @@
   <sheetData>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2864,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2872,7 +2966,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2880,7 +2974,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2888,7 +2982,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2896,7 +2990,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2931,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2989,7 +3083,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3093,22 +3187,22 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3116,40 +3210,40 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>133</v>
-      </c>
       <c r="E19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E20" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C21" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3180,10 +3274,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3246,22 +3340,22 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3269,15 +3363,15 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3292,7 +3386,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3305,10 +3399,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3329,10 +3423,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
         <v>49</v>
@@ -3353,13 +3447,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>119</v>
+        <v>232</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>120</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3378,39 +3472,39 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E9" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3418,26 +3512,26 @@
         <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E10" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F10" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3450,7 +3544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -3464,10 +3558,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3561,22 +3655,22 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3584,37 +3678,37 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E11" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F11" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E12" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3627,8 +3721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3641,10 +3735,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3652,10 +3746,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3674,7 +3768,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -3698,13 +3792,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3786,22 +3880,22 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3809,46 +3903,46 @@
         <v>2</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E17" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E19" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3860,10 +3954,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3876,10 +3970,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3909,117 +4003,128 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
+      <c r="A4" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>223</v>
+        <v>217</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>235</v>
+      <c r="A13" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4033,7 +4138,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4046,10 +4151,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4078,7 +4183,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -4100,44 +4205,44 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="F9" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -4150,8 +4255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4162,10 +4267,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>242</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4183,30 +4288,30 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4223,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4231,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4239,43 +4344,43 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" t="s">
-        <v>160</v>
+        <v>134</v>
+      </c>
+      <c r="D10" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>161</v>
+      <c r="D11" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4286,6 +4391,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100A30F3884CD43244294355762AE14FDC0" ma:contentTypeVersion="13" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="d6abdbf5296efb927e779bc42333b79d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c8b53866-fdfd-416a-aee2-e50c3ae941dd" xmlns:ns4="9d433cf1-fba1-428a-9634-baf48b90bf9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cbc3d42f92fe2e49d2b946bcae330cb" ns3:_="" ns4:_="">
     <xsd:import namespace="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
@@ -4508,22 +4628,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A7B083-9D0F-4795-94A6-C1128A2A5DD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4540,29 +4670,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DB Scripts/Components Detail.xlsx
+++ b/DB Scripts/Components Detail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="729" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="729" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="10" r:id="rId1"/>
@@ -2058,7 +2058,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:F10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2190,8 +2190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4255,7 +4255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/DB Scripts/Components Detail.xlsx
+++ b/DB Scripts/Components Detail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="729" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="729" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="10" r:id="rId1"/>
@@ -22,8 +22,9 @@
     <sheet name="CERTIFICATE" sheetId="8" r:id="rId8"/>
     <sheet name="HEALTH" sheetId="9" r:id="rId9"/>
     <sheet name="ANNOUCEMENT" sheetId="13" r:id="rId10"/>
-    <sheet name="CONSTRAINT" sheetId="14" r:id="rId11"/>
+    <sheet name="PARAMETER" sheetId="14" r:id="rId11"/>
     <sheet name="Vaccine Combination" sheetId="2" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -638,7 +639,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="242">
   <si>
     <t>PERSON</t>
   </si>
@@ -1322,9 +1323,6 @@
     <t>MinDistance</t>
   </si>
   <si>
-    <t>MaxDistance</t>
-  </si>
-  <si>
     <t>NULL</t>
   </si>
   <si>
@@ -1340,21 +1338,12 @@
     <t>DoseType</t>
   </si>
   <si>
-    <t>Basic</t>
-  </si>
-  <si>
     <t>Mũi đang đăng ký là mũi 3 (nhắc lại), các mũi trước khác nhau</t>
   </si>
   <si>
     <t>Mũi đang đăng ký là mũi 3 (nhắc lại), các mũi trước giống nhau</t>
   </si>
   <si>
-    <t>Additional</t>
-  </si>
-  <si>
-    <t>Booster</t>
-  </si>
-  <si>
     <t>CertType IN (0,1,2)</t>
   </si>
   <si>
@@ -1368,6 +1357,15 @@
   </si>
   <si>
     <t>HEALTH (HEAL)</t>
+  </si>
+  <si>
+    <t>repeat</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>booster</t>
   </si>
 </sst>
 </file>
@@ -2069,7 +2067,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1" t="s">
         <v>140</v>
@@ -2188,29 +2186,28 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>174</v>
       </c>
@@ -2219,7 +2216,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>56</v>
       </c>
@@ -2228,7 +2225,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>226</v>
       </c>
@@ -2236,7 +2233,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -2244,7 +2241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -2252,12 +2249,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>118</v>
       </c>
@@ -2271,13 +2268,13 @@
         <v>123</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>99</v>
       </c>
@@ -2285,14 +2282,13 @@
         <v>99</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>100</v>
       </c>
@@ -2303,53 +2299,47 @@
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -2357,25 +2347,22 @@
         <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D17" t="s">
         <v>226</v>
       </c>
       <c r="E17" t="s">
-        <v>227</v>
+        <v>112</v>
       </c>
       <c r="F17" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
-      </c>
-      <c r="J17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2383,25 +2370,22 @@
         <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D18">
         <v>56</v>
       </c>
-      <c r="E18" t="s">
-        <v>228</v>
-      </c>
-      <c r="F18">
+      <c r="E18">
         <v>0</v>
       </c>
+      <c r="F18" t="s">
+        <v>110</v>
+      </c>
       <c r="G18" t="s">
-        <v>110</v>
-      </c>
-      <c r="J18" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2409,22 +2393,22 @@
         <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D19">
         <v>28</v>
       </c>
-      <c r="F19">
+      <c r="E19">
         <v>0</v>
       </c>
+      <c r="F19" t="s">
+        <v>110</v>
+      </c>
       <c r="G19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J19" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2432,22 +2416,22 @@
         <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D20">
         <v>28</v>
       </c>
-      <c r="F20">
+      <c r="E20">
         <v>1</v>
       </c>
+      <c r="F20" t="s">
+        <v>109</v>
+      </c>
       <c r="G20" t="s">
-        <v>109</v>
-      </c>
-      <c r="J20" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2455,22 +2439,22 @@
         <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D21">
         <v>28</v>
       </c>
-      <c r="F21">
+      <c r="E21">
         <v>0</v>
       </c>
+      <c r="F21" t="s">
+        <v>110</v>
+      </c>
       <c r="G21" t="s">
-        <v>110</v>
-      </c>
-      <c r="J21" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2478,22 +2462,22 @@
         <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D22">
         <v>28</v>
       </c>
-      <c r="F22">
+      <c r="E22">
         <v>1</v>
       </c>
+      <c r="F22" t="s">
+        <v>109</v>
+      </c>
       <c r="G22" t="s">
-        <v>109</v>
-      </c>
-      <c r="J22" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2501,22 +2485,22 @@
         <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D23">
         <v>90</v>
       </c>
-      <c r="F23">
+      <c r="E23">
         <v>0</v>
       </c>
+      <c r="F23" t="s">
+        <v>110</v>
+      </c>
       <c r="G23" t="s">
-        <v>110</v>
-      </c>
-      <c r="J23" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2524,54 +2508,102 @@
         <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D24">
         <v>90</v>
       </c>
-      <c r="F24">
+      <c r="E24">
         <v>1</v>
       </c>
+      <c r="F24" t="s">
+        <v>109</v>
+      </c>
       <c r="G24" t="s">
-        <v>109</v>
-      </c>
-      <c r="J24" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
       <c r="B25" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" t="s">
+        <v>227</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
       <c r="B26" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" t="s">
+        <v>227</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
       <c r="B27" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" t="s">
+        <v>227</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
       <c r="B28" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>239</v>
+      </c>
+      <c r="D28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2579,22 +2611,22 @@
         <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D29">
         <v>21</v>
       </c>
-      <c r="F29">
+      <c r="E29">
         <v>0</v>
       </c>
+      <c r="F29" t="s">
+        <v>103</v>
+      </c>
       <c r="G29" t="s">
-        <v>103</v>
-      </c>
-      <c r="J29" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2602,22 +2634,22 @@
         <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D30">
         <v>28</v>
       </c>
-      <c r="F30">
+      <c r="E30">
         <v>0</v>
       </c>
+      <c r="F30" t="s">
+        <v>111</v>
+      </c>
       <c r="G30" t="s">
-        <v>111</v>
-      </c>
-      <c r="J30" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2625,22 +2657,22 @@
         <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D31">
         <v>90</v>
       </c>
-      <c r="F31">
+      <c r="E31">
         <v>0</v>
       </c>
+      <c r="F31" t="s">
+        <v>114</v>
+      </c>
       <c r="G31" t="s">
-        <v>114</v>
-      </c>
-      <c r="J31" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2648,278 +2680,559 @@
         <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D32">
         <v>90</v>
       </c>
-      <c r="F32">
+      <c r="E32">
         <v>1</v>
       </c>
+      <c r="F32" t="s">
+        <v>109</v>
+      </c>
       <c r="G32" t="s">
-        <v>109</v>
-      </c>
-      <c r="J32" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" t="s">
+        <v>227</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>239</v>
+      </c>
+      <c r="D34" t="s">
+        <v>227</v>
+      </c>
+      <c r="E34">
         <v>1</v>
       </c>
-      <c r="B33" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33">
-        <v>21</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>2</v>
-      </c>
-      <c r="B34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34">
-        <v>28</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B35" t="s">
         <v>104</v>
       </c>
+      <c r="C35" t="s">
+        <v>240</v>
+      </c>
       <c r="D35">
-        <v>90</v>
-      </c>
-      <c r="F35">
+        <v>21</v>
+      </c>
+      <c r="E35">
         <v>0</v>
       </c>
-      <c r="G35" t="s">
+      <c r="F35" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
         <v>104</v>
       </c>
+      <c r="C36" t="s">
+        <v>240</v>
+      </c>
       <c r="D36">
+        <v>28</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" t="s">
+        <v>241</v>
+      </c>
+      <c r="D37">
         <v>90</v>
       </c>
-      <c r="F36">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s">
+        <v>241</v>
+      </c>
+      <c r="D38">
+        <v>90</v>
+      </c>
+      <c r="E38">
         <v>1</v>
       </c>
-      <c r="G36" t="s">
+      <c r="F38" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" t="s">
+        <v>239</v>
+      </c>
+      <c r="D39" t="s">
+        <v>227</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" t="s">
+        <v>239</v>
+      </c>
+      <c r="D40" t="s">
+        <v>227</v>
+      </c>
+      <c r="E40">
         <v>1</v>
       </c>
-      <c r="B37" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37">
-        <v>21</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>2</v>
-      </c>
-      <c r="B38" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38">
-        <v>28</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>2</v>
-      </c>
-      <c r="B39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39">
-        <v>28</v>
-      </c>
-      <c r="F39">
+      <c r="F40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>1</v>
-      </c>
-      <c r="G39" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>3</v>
-      </c>
-      <c r="B40" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40">
-        <v>90</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>3</v>
       </c>
       <c r="B41" t="s">
         <v>105</v>
       </c>
+      <c r="C41" t="s">
+        <v>240</v>
+      </c>
       <c r="D41">
-        <v>90</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="C42" t="s">
+        <v>240</v>
       </c>
       <c r="D42">
         <v>28</v>
       </c>
-      <c r="F42">
+      <c r="E42">
         <v>0</v>
       </c>
-      <c r="G42" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="C43" t="s">
+        <v>240</v>
       </c>
       <c r="D43">
         <v>28</v>
       </c>
-      <c r="F43">
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D44">
+        <v>90</v>
+      </c>
+      <c r="E44">
         <v>0</v>
       </c>
-      <c r="G43" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>2</v>
-      </c>
-      <c r="B44" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44">
-        <v>28</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="C45" t="s">
+        <v>241</v>
       </c>
       <c r="D45">
         <v>90</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
       <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" t="s">
+        <v>239</v>
+      </c>
+      <c r="D46" t="s">
+        <v>227</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" t="s">
+        <v>239</v>
+      </c>
+      <c r="D47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" t="s">
+        <v>239</v>
+      </c>
+      <c r="D48" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" t="s">
+        <v>227</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
         <v>106</v>
       </c>
-      <c r="D46">
+      <c r="C50" t="s">
+        <v>240</v>
+      </c>
+      <c r="D50">
+        <v>28</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" t="s">
+        <v>240</v>
+      </c>
+      <c r="D51">
+        <v>28</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" t="s">
+        <v>240</v>
+      </c>
+      <c r="D52">
+        <v>28</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" t="s">
+        <v>241</v>
+      </c>
+      <c r="D53">
         <v>90</v>
       </c>
-      <c r="F46">
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" t="s">
+        <v>241</v>
+      </c>
+      <c r="D54">
+        <v>90</v>
+      </c>
+      <c r="E54">
         <v>1</v>
       </c>
-      <c r="G46" t="s">
+      <c r="F54" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" t="s">
+        <v>239</v>
+      </c>
+      <c r="D55" t="s">
+        <v>227</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" t="s">
+        <v>239</v>
+      </c>
+      <c r="D56" t="s">
+        <v>227</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" t="s">
+        <v>239</v>
+      </c>
+      <c r="D57" t="s">
+        <v>227</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" t="s">
+        <v>239</v>
+      </c>
+      <c r="D58" t="s">
+        <v>227</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1" t="s">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3000,6 +3313,897 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3">
+        <v>56</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D8">
+        <v>90</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9">
+        <v>90</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D14">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15">
+        <v>28</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16">
+        <v>90</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17">
+        <v>90</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D21">
+        <v>28</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D22">
+        <v>90</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23">
+        <v>90</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D24" t="s">
+        <v>227</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" t="s">
+        <v>227</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27">
+        <v>28</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" t="s">
+        <v>240</v>
+      </c>
+      <c r="D28">
+        <v>28</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s">
+        <v>241</v>
+      </c>
+      <c r="D29">
+        <v>90</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" t="s">
+        <v>241</v>
+      </c>
+      <c r="D30">
+        <v>90</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" t="s">
+        <v>239</v>
+      </c>
+      <c r="D31" t="s">
+        <v>227</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>239</v>
+      </c>
+      <c r="D32" t="s">
+        <v>227</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" t="s">
+        <v>227</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" t="s">
+        <v>239</v>
+      </c>
+      <c r="D34" t="s">
+        <v>227</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" t="s">
+        <v>240</v>
+      </c>
+      <c r="D35">
+        <v>28</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" t="s">
+        <v>240</v>
+      </c>
+      <c r="D36">
+        <v>28</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" t="s">
+        <v>240</v>
+      </c>
+      <c r="D37">
+        <v>28</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" t="s">
+        <v>241</v>
+      </c>
+      <c r="D38">
+        <v>90</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" t="s">
+        <v>241</v>
+      </c>
+      <c r="D39">
+        <v>90</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" t="s">
+        <v>239</v>
+      </c>
+      <c r="D40" t="s">
+        <v>227</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" t="s">
+        <v>239</v>
+      </c>
+      <c r="D41" t="s">
+        <v>227</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" t="s">
+        <v>239</v>
+      </c>
+      <c r="D42" t="s">
+        <v>227</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" t="s">
+        <v>239</v>
+      </c>
+      <c r="D43" t="s">
+        <v>227</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
@@ -3447,13 +4651,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4004,13 +5208,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4116,7 +5320,7 @@
         <v>172</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>218</v>
@@ -4124,7 +5328,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4239,7 +5443,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F9" t="s">
         <v>220</v>
@@ -4267,7 +5471,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B1" t="s">
         <v>139</v>
@@ -4391,21 +5595,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100A30F3884CD43244294355762AE14FDC0" ma:contentTypeVersion="13" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="d6abdbf5296efb927e779bc42333b79d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c8b53866-fdfd-416a-aee2-e50c3ae941dd" xmlns:ns4="9d433cf1-fba1-428a-9634-baf48b90bf9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cbc3d42f92fe2e49d2b946bcae330cb" ns3:_="" ns4:_="">
     <xsd:import namespace="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
@@ -4628,32 +5817,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A7B083-9D0F-4795-94A6-C1128A2A5DD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4670,4 +5849,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DB Scripts/Components Detail.xlsx
+++ b/DB Scripts/Components Detail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="729" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="10" r:id="rId1"/>
@@ -22,8 +22,9 @@
     <sheet name="CERTIFICATE" sheetId="8" r:id="rId8"/>
     <sheet name="HEALTH" sheetId="9" r:id="rId9"/>
     <sheet name="ANNOUCEMENT" sheetId="13" r:id="rId10"/>
-    <sheet name="CONSTRAINT" sheetId="14" r:id="rId11"/>
+    <sheet name="PARAMETER" sheetId="14" r:id="rId11"/>
     <sheet name="Vaccine Combination" sheetId="2" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,69 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>operator</author>
+  </authors>
+  <commentList>
+    <comment ref="E9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NghiepCuong:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- Only put Username and Password to create an ACCOUNT.
+- OrgID must be NULL
+- Role must be 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">NghiepCuong:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>- OrgID must begins with ProvinceCode, ends with number in order.
+- Role must be 1. If the account created for MOH, role must be 0.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
     <author>Đặng Nghiệp Cường</author>
+    <author>operator</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -55,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0" shapeId="0">
+    <comment ref="A14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,11 +133,59 @@
         </r>
       </text>
     </comment>
+    <comment ref="E18" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NghiepCuong:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- Phone is automatically set by Username</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NghiepCuong:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- Check if a parameter is null, it means the attribute is not changed, then keep the old value.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Đặng Nghiệp Cường</author>
@@ -114,10 +225,11 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Đặng Nghiệp Cường</author>
+    <author>operator</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -149,14 +261,39 @@
         </r>
       </text>
     </comment>
+    <comment ref="E9" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> NghiepCuong:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- Type is calculate by INJ_TYPE(PersonalID, InjNO)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Đặng Nghiệp Cường</author>
+    <author>operator</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -174,14 +311,63 @@
         </r>
       </text>
     </comment>
+    <comment ref="F11" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NghiepCuong:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- Remember to check the validation between StartDate and EndDate.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">NghiepCuong:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>- Remember to check the validation between StartDate and EndDate.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Đặng Nghiệp Cường</author>
+    <author>operator</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -259,11 +445,35 @@
         </r>
       </text>
     </comment>
+    <comment ref="E16" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NghiepCuong:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- If a LimitNumber parameter of a Time is NULL, set LimitNumber of that time to 0.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Đặng Nghiệp Cường</author>
@@ -284,7 +494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -299,7 +509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -314,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -333,7 +543,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Đặng Nghiệp Cường</author>
@@ -373,7 +583,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Đặng Nghiệp Cường</author>
@@ -429,7 +639,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="242">
   <si>
     <t>PERSON</t>
   </si>
@@ -479,9 +689,6 @@
     <t>number(1)</t>
   </si>
   <si>
-    <t>Giới tính: 0 nữ, 1 nam, 2 khác</t>
-  </si>
-  <si>
     <t>HOMETOWN</t>
   </si>
   <si>
@@ -548,9 +755,6 @@
     <t>Mã định danh cá nhân 12 chữ số của người giám hộ</t>
   </si>
   <si>
-    <t>VACCINE</t>
-  </si>
-  <si>
     <t>varchar2(8)</t>
   </si>
   <si>
@@ -575,9 +779,6 @@
     <t>Nước sản xuất vaccine</t>
   </si>
   <si>
-    <t>INJECTION</t>
-  </si>
-  <si>
     <t>PERSONALID</t>
   </si>
   <si>
@@ -591,9 +792,6 @@
   </si>
   <si>
     <t>SCHEDID</t>
-  </si>
-  <si>
-    <t>ORGANIZATION</t>
   </si>
   <si>
     <t>varhar2(16)</t>
@@ -606,15 +804,9 @@
     <t>Tên đơn vị</t>
   </si>
   <si>
-    <t>SCHEDULE</t>
-  </si>
-  <si>
     <t>ORGID</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>Ngày tiêm chủng</t>
   </si>
   <si>
@@ -645,9 +837,6 @@
     <t>NIGHTREGISTERED</t>
   </si>
   <si>
-    <t>REGISTER</t>
-  </si>
-  <si>
     <t>TIME</t>
   </si>
   <si>
@@ -663,9 +852,6 @@
     <t>Trạng thái lịch đăng ký: 0 đã đăng ký, 1 điểm danh, 2 đã tiêm, 3 đã hủy</t>
   </si>
   <si>
-    <t>CERTIFICATE</t>
-  </si>
-  <si>
     <t>DOSE</t>
   </si>
   <si>
@@ -678,9 +864,6 @@
     <t>Chứng nhận: 0 đỏ, 1 vàng, 2 xanh</t>
   </si>
   <si>
-    <t>HEALTH</t>
-  </si>
-  <si>
     <t>Tình trạng sức khỏe</t>
   </si>
   <si>
@@ -726,9 +909,6 @@
     <t>Dương tính</t>
   </si>
   <si>
-    <t>ACCOUNT</t>
-  </si>
-  <si>
     <t>ROLE</t>
   </si>
   <si>
@@ -744,30 +924,15 @@
     <t>IMAGE</t>
   </si>
   <si>
-    <t>ordimgb</t>
-  </si>
-  <si>
     <t>varchar2(200)</t>
   </si>
   <si>
-    <t>FROM</t>
-  </si>
-  <si>
     <t>varchar2(16)</t>
   </si>
   <si>
     <t>varchar2(4000)</t>
   </si>
   <si>
-    <t>ANNOUNCEMENT</t>
-  </si>
-  <si>
-    <t>CONSTRAINT</t>
-  </si>
-  <si>
-    <t>NEXTTIME</t>
-  </si>
-  <si>
     <t>NEXTDOSE</t>
   </si>
   <si>
@@ -819,170 +984,395 @@
     <t>PREVDOSE</t>
   </si>
   <si>
+    <t>Vero, Pfizer, Moderna, Astra</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Sputnik V</t>
+  </si>
+  <si>
+    <t>Moderna, Pfizer</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY</t>
+  </si>
+  <si>
+    <t>CHECK</t>
+  </si>
+  <si>
+    <t>S_FUNCS</t>
+  </si>
+  <si>
+    <t>S_PROCS</t>
+  </si>
+  <si>
+    <t>TRIGGERS</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password NOT NULL</t>
+  </si>
+  <si>
+    <t>Role IN (0,1,2)</t>
+  </si>
+  <si>
+    <t>Guardian -&gt; PERSON(ID)</t>
+  </si>
+  <si>
+    <t>PersonalID -&gt; PERSON(ID)</t>
+  </si>
+  <si>
+    <t>LastName only contains alphabet characters</t>
+  </si>
+  <si>
+    <t>FirstName only contains alphabet characters</t>
+  </si>
+  <si>
+    <t>Phone only contains non-negative digits [and a '+' character]</t>
+  </si>
+  <si>
+    <t>Username only contain alphabet and digit characters</t>
+  </si>
+  <si>
+    <t>Name UNIQUE</t>
+  </si>
+  <si>
+    <t>PersonalID</t>
+  </si>
+  <si>
+    <t>SCHEDID -&gt; SCHEDULE(ID)</t>
+  </si>
+  <si>
+    <t>NO IN (1,2,3,4)</t>
+  </si>
+  <si>
+    <t>Type IN (0,1,2)</t>
+  </si>
+  <si>
+    <t>20521252 - Le Hoang Duyen</t>
+  </si>
+  <si>
+    <t>20521720 - Truong Y Nhi</t>
+  </si>
+  <si>
+    <t>20521890 - Truong Nguyen Quang Thai</t>
+  </si>
+  <si>
+    <t>SERIAL</t>
+  </si>
+  <si>
+    <t>Số lô vaccine</t>
+  </si>
+  <si>
+    <t>OrgID</t>
+  </si>
+  <si>
+    <t>OrgID -&gt; ORGANIZATION(ID)</t>
+  </si>
+  <si>
+    <t>VaccineID -&gt; VACCINE(ID)</t>
+  </si>
+  <si>
+    <t>INJNO</t>
+  </si>
+  <si>
+    <t>20520418 - Dang Nghiep Cuong</t>
+  </si>
+  <si>
+    <t>Từ tổ chức nào</t>
+  </si>
+  <si>
+    <t>ID thông báo/bài viết</t>
+  </si>
+  <si>
+    <t>Tiêu đề</t>
+  </si>
+  <si>
+    <t>Nội dung</t>
+  </si>
+  <si>
+    <t>Ngày đăng</t>
+  </si>
+  <si>
+    <t>Hình ảnh đính kèm</t>
+  </si>
+  <si>
+    <t>blob</t>
+  </si>
+  <si>
+    <t>ONDATE</t>
+  </si>
+  <si>
+    <t>PUBLISHDATE</t>
+  </si>
+  <si>
+    <t>FilledDate = SYSDATE</t>
+  </si>
+  <si>
+    <t>Healths is a string contains only characters '0' or '1'</t>
+  </si>
+  <si>
+    <t>PublishDate = SYSDATE</t>
+  </si>
+  <si>
+    <t>Dose IN (1,2,3,4)</t>
+  </si>
+  <si>
+    <t>ACCOUNT (ACC)</t>
+  </si>
+  <si>
+    <t>INJECTION (INJ)</t>
+  </si>
+  <si>
+    <t>ORGANIZATION (ORG)</t>
+  </si>
+  <si>
+    <t>SCHEDULE (SCHED)</t>
+  </si>
+  <si>
+    <t>REGISTER (REG)</t>
+  </si>
+  <si>
+    <t>CERTIFICATE (CERT)</t>
+  </si>
+  <si>
+    <t>VACCINE (VAC)</t>
+  </si>
+  <si>
+    <t>CERTTYPE</t>
+  </si>
+  <si>
+    <t>SchedID</t>
+  </si>
+  <si>
+    <t>SchedID -&gt; SCHEDULE(ID)</t>
+  </si>
+  <si>
+    <t>Time in (0,1,2)</t>
+  </si>
+  <si>
+    <t>Status in (0,1,2,3)</t>
+  </si>
+  <si>
+    <t>number REG_SIGNED_NO(varchar2 PersonalID, varchar2 SchedID, number Time) --Set the NO value of the registion</t>
+  </si>
+  <si>
+    <t>INJECTIONNO</t>
+  </si>
+  <si>
+    <t>Giới tính: 0 nữ, 1 nam, NULL khác</t>
+  </si>
+  <si>
+    <t>Gender IN (0,1)</t>
+  </si>
+  <si>
+    <t>SchedID is not null</t>
+  </si>
+  <si>
+    <t>Type is not null</t>
+  </si>
+  <si>
+    <t>Name is not null</t>
+  </si>
+  <si>
+    <t>Province is not null</t>
+  </si>
+  <si>
+    <t>OrgID is not null</t>
+  </si>
+  <si>
+    <t>VaccineID is not null</t>
+  </si>
+  <si>
+    <t>OnDate is not null</t>
+  </si>
+  <si>
+    <t>number PERSON_AGE() --Return the age of the person</t>
+  </si>
+  <si>
+    <t>Phone -&gt; ACCOUNT(Username)</t>
+  </si>
+  <si>
+    <t>ID -&gt; ACCOUNT(ORGID)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrgID DEFAULT NULL </t>
+  </si>
+  <si>
+    <t>Role DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number INJ_TYPE(PersonalID, InjNO) --Return the type of the injection </t>
+  </si>
+  <si>
+    <t>number ORG_COUNT_SCHED(OrgID, StartDate, EndDate) --Count the number of schedules were hold by the ORG from StartDate to EndDate. If parameters are blank, counts al</t>
+  </si>
+  <si>
+    <t>number ORG_COUNT_INJ(OrgID, StartDate, EndDate) --Count the number of injections have been done by the ORG from StartDate to EndDate. If parameters are blank, counts all</t>
+  </si>
+  <si>
+    <t>OnDate &gt; SYSDATE</t>
+  </si>
+  <si>
+    <t>0 &lt;= Registered &lt;= Limit</t>
+  </si>
+  <si>
+    <t>REG_NO_Limit: NO &lt;= the number of Limit due to the register Time</t>
+  </si>
+  <si>
+    <t>boolean INJ_Difference(PersonalID) --Check the difference between the injections of a person, return 0 if they're all the same, 1 if they're difference</t>
+  </si>
+  <si>
+    <t>Sputnik V, Pfizer, Moderna</t>
+  </si>
+  <si>
+    <t>ACC_INSERT_RECORD(par_Username, par_Password, par_Note DEFAULT NULL) --Create a new personal accoount</t>
+  </si>
+  <si>
+    <t>ACC_DELETE_RECORD(par_Username) --Delete an account</t>
+  </si>
+  <si>
+    <t>ACC_CREATE_ORG(number par_Quantity, varchar2 par_ProvinceCode) --Create a Quantity of accounts for organizations in a province</t>
+  </si>
+  <si>
+    <t>ACC_UPDATE_PASSWORD(par_Username, par_OldPass, par_NewPass) --Update password of an account</t>
+  </si>
+  <si>
+    <t>ACC_RESET_PASSWORD(par_Username, par_VerifyCode) --Reset password of an account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERSON_INSERT_RECORD(par_ID, par_LastName , par_FirstName, par_Birthday, par_Gender, par_HomeTown, par_Province, par_District, par_Town, par_Street, par_Email, par_Guardian, par_Note DEFAULT NULL) </t>
+  </si>
+  <si>
+    <t>PERSON_DELETE_RECORD(par_PersonalID)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERSON_UPDATE_RECORD(par_ID, par_LastName, par_FirstName, par_Gender, par_HomeTown, par_Province, par_District, par_Town, par_Street, par_Email, par_Guardian, Note DEFAULT NULL) </t>
+  </si>
+  <si>
+    <t>VAC_INSERT_RECORD(par_ID, par_Name, par_Technology, par_Country, par_Note DEFAULT NULL)</t>
+  </si>
+  <si>
+    <t>VAC_DELETE_RECORD(par_VaccineID)</t>
+  </si>
+  <si>
+    <t>INJ_INSERT_RECORD(par_PersonalID, par_InjNO, par_SchedID, par_Note DEFAULT NULL)</t>
+  </si>
+  <si>
+    <t>INJ_DELETE_RECORD(par_PersonalID, par_InjNO)</t>
+  </si>
+  <si>
+    <t>ORG_INSERT_RECORD(par_ID, par_Name, par_Province, par_District, par_Town, par_Street, par_Note DEFAULT NULL)</t>
+  </si>
+  <si>
+    <t>ORG_DELETE_RECORD(par_OrgID)</t>
+  </si>
+  <si>
+    <t>ORG_UPDATE_RECORD(par_ID, par_Name, par_Province, par_District, par_Town, par_Street, par_Note DEFAULT NULL)</t>
+  </si>
+  <si>
+    <t>ORG_ANNOUCE(par_Post, par_Province, par_District, par_Town) --Push the announcement to the citizen in the specify area</t>
+  </si>
+  <si>
+    <t>SCHED_INSERT_RECORD(par_OrgID, par_OnDate, par_VaccineID, par_Serial, par_LimitDay, par_LimitNoon, par_LitmitNight, par_Note DEFAULT NULL) --Insert schedule record</t>
+  </si>
+  <si>
+    <t>SCHED_DELETE_RECORD(par_SchedID)</t>
+  </si>
+  <si>
+    <t>SCHED_INC_REG(par_SchedId, par_Time) --Increase 1 registion at Time parameter</t>
+  </si>
+  <si>
+    <t>SCHED_DEC_REG(par_SchedID, par_Time) --Decrease 1 registion at Time parameter</t>
+  </si>
+  <si>
+    <t>REG_INSERT_VALUE(par_PersonalID, par_SchedID, par_TimeReg) --Set values for registion</t>
+  </si>
+  <si>
+    <t>REG_DELETE_RECORD(par_PersonalID, par_SchedID) --Canceled a registion</t>
+  </si>
+  <si>
+    <t>number COUNT_CERT(par_Type) --Return the number of a certificate type</t>
+  </si>
+  <si>
+    <t>number COUNT_DOSE(par_Dose) --Return the number of a dose type</t>
+  </si>
+  <si>
+    <t>Mũi đang đăng ký là mũi 2 (cơ bản), các mũi trước không có (giống nhau)</t>
+  </si>
+  <si>
+    <t>Mũi đang đăng ký là mũi 4 (nhắc lại), các mũi trước giống nhau</t>
+  </si>
+  <si>
+    <t>Mũi đang đăng ký là mũi 4 (nhắc lại), các mũi trước khác nhau</t>
+  </si>
+  <si>
+    <t>Mũi đang đăng ký là mũi 3 (bổ sung), các mũi trước giống nhau</t>
+  </si>
+  <si>
+    <t>Mũi đang đăng ký là mũi 3 (bổ sung), các mũi trước khác nhau</t>
+  </si>
+  <si>
+    <t>MinDistance</t>
+  </si>
+  <si>
     <t>NULL</t>
   </si>
   <si>
-    <t>Vero, Pfizer, Moderna, Astra</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Mũi tiếp theo là liều bổ sung, các mũi trước giống nhau</t>
-  </si>
-  <si>
-    <t>Mũi tiếp theo là liều nhắc lại, các mũi trước giống nhau</t>
-  </si>
-  <si>
-    <t>Mũi tiếp theo là liều nhắc lại, các mũi trước khác nhau</t>
-  </si>
-  <si>
-    <t>Sputnik V</t>
-  </si>
-  <si>
-    <t>Moderna, Pfizer</t>
-  </si>
-  <si>
-    <t>NextDistance</t>
-  </si>
-  <si>
-    <t>Mũi tiếp theo là liều cơ bản, các mũi trước không có</t>
-  </si>
-  <si>
-    <t>Mũi tiếp theo là liều bổ sung, các mũi trước khác nhau</t>
-  </si>
-  <si>
-    <t>TYPE</t>
-  </si>
-  <si>
-    <t>0 (mũi cơ bản), 1 (mũi bổ sung), 2 (mũi nhắc lại)</t>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
-  </si>
-  <si>
-    <t>FOREIGN KEY</t>
-  </si>
-  <si>
-    <t>CHECK</t>
-  </si>
-  <si>
-    <t>S_FUNCS</t>
-  </si>
-  <si>
-    <t>S_PROCS</t>
-  </si>
-  <si>
-    <t>TRIGGERS</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password NOT NULL</t>
-  </si>
-  <si>
-    <t>Role IN (0,1,2)</t>
-  </si>
-  <si>
-    <t>Guardian -&gt; PERSON(ID)</t>
-  </si>
-  <si>
-    <t>PersonalID -&gt; PERSON(ID)</t>
-  </si>
-  <si>
-    <t>LastName only contains alphabet characters</t>
-  </si>
-  <si>
-    <t>FirstName only contains alphabet characters</t>
-  </si>
-  <si>
-    <t>Gender IN (0,1,2)</t>
-  </si>
-  <si>
-    <t>Phone only contains non-negative digits [and a '+' character]</t>
-  </si>
-  <si>
-    <t>Username only contain alphabet and digit characters</t>
-  </si>
-  <si>
-    <t>int AGE() --Return the age of the person</t>
-  </si>
-  <si>
-    <t>Name UNIQUE</t>
-  </si>
-  <si>
-    <t>PersonalID</t>
-  </si>
-  <si>
-    <t>SCHEDID -&gt; SCHEDULE(ID)</t>
-  </si>
-  <si>
-    <t>NO IN (1,2,3,4)</t>
-  </si>
-  <si>
-    <t>Type IN (0,1,2)</t>
-  </si>
-  <si>
-    <t>boolean INJECTIONS_DIFFERENCE(varchar2 PersonalID) --Check the difference between the injections of a person, return 0 if they're all the same, 1 if they're difference</t>
-  </si>
-  <si>
-    <t>void UPDATE_NEW_INJECTION(varchar2 PersonalID, varchar2 SchedID) --Update a new injection data for a person</t>
-  </si>
-  <si>
-    <t>20521252 - Le Hoang Duyen</t>
-  </si>
-  <si>
-    <t>20521720 - Truong Y Nhi</t>
-  </si>
-  <si>
-    <t>20521890 - Truong Nguyen Quang Thai</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> void PUSH_ANNOUNCEMENT(ANNOUNCEMENT Post, varchar2 Province, varchar2 District, varchar2 Town) --Push the announcement to the citizen in the specify area</t>
-  </si>
-  <si>
-    <t>int COUNT_SCHEDULES(varchar2 OrgID, date StartDate = NULL, date EndDate = NULL) --Count the number of schedules were hold by the ORG from StartDate to EndDate. If parameters are blank, counts all</t>
-  </si>
-  <si>
-    <t>int COUNT_INJECTIONS(varchar2 OrgID, date StartDate = NULL, date EndDate = NULL) --Count the number of injections have been done by the ORG from StartDate to EndDate. If parameters are blank, counts all</t>
-  </si>
-  <si>
-    <t>SERIAL</t>
-  </si>
-  <si>
-    <t>Số lô vaccine</t>
-  </si>
-  <si>
-    <t>OrgID</t>
-  </si>
-  <si>
-    <t>OrgID -&gt; ORGANIZATION(ID)</t>
-  </si>
-  <si>
-    <t>VaccineID -&gt; VACCINE(ID)</t>
-  </si>
-  <si>
-    <t>Date &gt; SYSDATE</t>
-  </si>
-  <si>
-    <t>DayRegistered &lt;= LimitDay</t>
-  </si>
-  <si>
-    <t>NoonRegistered &lt;= LimitNoon</t>
-  </si>
-  <si>
-    <t>NightRegistered &lt;= LimitNight</t>
-  </si>
-  <si>
-    <t>INJNO</t>
+    <t>REG_VACCINATION_RULE: The registered schedule must follow the rule of vaccination (spacing time and vaccine type)</t>
+  </si>
+  <si>
+    <t>REG_VACCINATION_TARGET: The citizen affected by Covid-19 can complete basic dose after healing. If you have completed basic dose before affected by Covid-19, it doesn't necessary to make an additional dose. Summary: citizen can't do vaccination during affected time, and can do vaccination immedietly after healing but still follow the vaccination rule about spacing time and vaccine type</t>
+  </si>
+  <si>
+    <t>ANNOUNCEMENT (ANN)</t>
+  </si>
+  <si>
+    <t>DoseType</t>
+  </si>
+  <si>
+    <t>Mũi đang đăng ký là mũi 3 (nhắc lại), các mũi trước khác nhau</t>
+  </si>
+  <si>
+    <t>Mũi đang đăng ký là mũi 3 (nhắc lại), các mũi trước giống nhau</t>
+  </si>
+  <si>
+    <t>CertType IN (0,1,2)</t>
+  </si>
+  <si>
+    <t>PreDose in (0,1)</t>
+  </si>
+  <si>
+    <t>PARAMETER (PAR)</t>
+  </si>
+  <si>
+    <t>Basic, Booster, Repeat</t>
+  </si>
+  <si>
+    <t>HEALTH (HEAL)</t>
+  </si>
+  <si>
+    <t>repeat</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>booster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1007,6 +1397,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1038,7 +1475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1049,9 +1486,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1477,47 +1918,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
+      <c r="A2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1525,124 +1966,216 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>150</v>
+    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>149</v>
+        <v>126</v>
+      </c>
+      <c r="E10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
-        <v>35</v>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1653,509 +2186,1054 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>128</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" t="s">
         <v>115</v>
       </c>
-      <c r="C9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" t="s">
-        <v>116</v>
-      </c>
-      <c r="H9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10">
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s">
+        <v>240</v>
+      </c>
+      <c r="D18">
         <v>56</v>
       </c>
-      <c r="D10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" t="s">
-        <v>125</v>
-      </c>
-      <c r="H10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11">
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" t="s">
+        <v>240</v>
+      </c>
+      <c r="D19">
         <v>28</v>
       </c>
-      <c r="D11">
+      <c r="E19">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="F19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12">
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20">
         <v>28</v>
       </c>
-      <c r="D12">
+      <c r="E20">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
-        <v>124</v>
-      </c>
-      <c r="H12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13">
-        <v>90</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14">
-        <v>90</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>124</v>
-      </c>
-      <c r="H14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" t="s">
-        <v>118</v>
-      </c>
-      <c r="H15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16">
-        <v>28</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>126</v>
-      </c>
-      <c r="H16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>2</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="6">
-        <v>90</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>130</v>
-      </c>
-      <c r="H17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18">
-        <v>90</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19">
-        <v>90</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20">
-        <v>21</v>
-      </c>
-      <c r="D20" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21">
+        <v>102</v>
+      </c>
+      <c r="C21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D21">
         <v>28</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0</v>
       </c>
-      <c r="E21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
+        <v>240</v>
+      </c>
+      <c r="D22">
+        <v>28</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>3</v>
       </c>
-      <c r="B22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22">
+      <c r="B23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23">
         <v>90</v>
       </c>
-      <c r="D22">
+      <c r="E23">
         <v>0</v>
       </c>
-      <c r="E22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="F23" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" t="s">
+        <v>241</v>
+      </c>
+      <c r="D24">
+        <v>90</v>
+      </c>
+      <c r="E24">
         <v>1</v>
       </c>
-      <c r="B23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23">
-        <v>21</v>
-      </c>
-      <c r="D23" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24">
-        <v>28</v>
-      </c>
-      <c r="D24">
+      <c r="F24" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" t="s">
+        <v>227</v>
+      </c>
+      <c r="E25">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25">
-        <v>28</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26">
-        <v>90</v>
-      </c>
-      <c r="D26">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" t="s">
+        <v>227</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" t="s">
+        <v>227</v>
+      </c>
+      <c r="E27">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27">
-        <v>90</v>
-      </c>
-      <c r="D27">
+      <c r="F27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>239</v>
+      </c>
+      <c r="D28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E28">
         <v>1</v>
       </c>
-      <c r="E27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="F28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>1</v>
       </c>
-      <c r="B28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28">
-        <v>28</v>
-      </c>
-      <c r="D28" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2</v>
-      </c>
       <c r="B29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29">
-        <v>28</v>
+        <v>103</v>
+      </c>
+      <c r="C29" t="s">
+        <v>240</v>
       </c>
       <c r="D29">
+        <v>21</v>
+      </c>
+      <c r="E29">
         <v>0</v>
       </c>
-      <c r="E29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30">
+        <v>103</v>
+      </c>
+      <c r="C30" t="s">
+        <v>240</v>
+      </c>
+      <c r="D30">
         <v>28</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s">
+        <v>241</v>
+      </c>
+      <c r="D31">
         <v>90</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0</v>
       </c>
-      <c r="E31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
       <c r="B32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" t="s">
+        <v>241</v>
+      </c>
+      <c r="D32">
+        <v>90</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" t="s">
+        <v>227</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>239</v>
+      </c>
+      <c r="D34" t="s">
+        <v>227</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
+        <v>240</v>
+      </c>
+      <c r="D35">
+        <v>21</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s">
+        <v>240</v>
+      </c>
+      <c r="D36">
+        <v>28</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" t="s">
+        <v>241</v>
+      </c>
+      <c r="D37">
+        <v>90</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s">
+        <v>241</v>
+      </c>
+      <c r="D38">
+        <v>90</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" t="s">
+        <v>239</v>
+      </c>
+      <c r="D39" t="s">
+        <v>227</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" t="s">
+        <v>239</v>
+      </c>
+      <c r="D40" t="s">
+        <v>227</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" t="s">
+        <v>240</v>
+      </c>
+      <c r="D41">
+        <v>21</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" t="s">
+        <v>240</v>
+      </c>
+      <c r="D42">
+        <v>28</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" t="s">
+        <v>240</v>
+      </c>
+      <c r="D43">
+        <v>28</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D44">
+        <v>90</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" t="s">
+        <v>241</v>
+      </c>
+      <c r="D45">
+        <v>90</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" t="s">
+        <v>239</v>
+      </c>
+      <c r="D46" t="s">
+        <v>227</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" t="s">
+        <v>239</v>
+      </c>
+      <c r="D47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" t="s">
+        <v>239</v>
+      </c>
+      <c r="D48" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" t="s">
+        <v>227</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" t="s">
+        <v>240</v>
+      </c>
+      <c r="D50">
+        <v>28</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" t="s">
+        <v>240</v>
+      </c>
+      <c r="D51">
+        <v>28</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" t="s">
+        <v>240</v>
+      </c>
+      <c r="D52">
+        <v>28</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" t="s">
+        <v>241</v>
+      </c>
+      <c r="D53">
+        <v>90</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" t="s">
+        <v>241</v>
+      </c>
+      <c r="D54">
+        <v>90</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" t="s">
+        <v>239</v>
+      </c>
+      <c r="D55" t="s">
+        <v>227</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" t="s">
+        <v>239</v>
+      </c>
+      <c r="D56" t="s">
+        <v>227</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" t="s">
+        <v>239</v>
+      </c>
+      <c r="D57" t="s">
+        <v>227</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" t="s">
+        <v>239</v>
+      </c>
+      <c r="D58" t="s">
+        <v>227</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C32">
-        <v>90</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2168,7 +3246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A17:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -2185,7 +3263,7 @@
   <sheetData>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2193,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2201,7 +3279,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2209,7 +3287,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2217,7 +3295,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2225,7 +3303,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2235,12 +3313,903 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3">
+        <v>56</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D8">
+        <v>90</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9">
+        <v>90</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D14">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15">
+        <v>28</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16">
+        <v>90</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17">
+        <v>90</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D21">
+        <v>28</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D22">
+        <v>90</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23">
+        <v>90</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D24" t="s">
+        <v>227</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" t="s">
+        <v>227</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27">
+        <v>28</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" t="s">
+        <v>240</v>
+      </c>
+      <c r="D28">
+        <v>28</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s">
+        <v>241</v>
+      </c>
+      <c r="D29">
+        <v>90</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" t="s">
+        <v>241</v>
+      </c>
+      <c r="D30">
+        <v>90</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" t="s">
+        <v>239</v>
+      </c>
+      <c r="D31" t="s">
+        <v>227</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>239</v>
+      </c>
+      <c r="D32" t="s">
+        <v>227</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" t="s">
+        <v>227</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" t="s">
+        <v>239</v>
+      </c>
+      <c r="D34" t="s">
+        <v>227</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" t="s">
+        <v>240</v>
+      </c>
+      <c r="D35">
+        <v>28</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" t="s">
+        <v>240</v>
+      </c>
+      <c r="D36">
+        <v>28</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" t="s">
+        <v>240</v>
+      </c>
+      <c r="D37">
+        <v>28</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" t="s">
+        <v>241</v>
+      </c>
+      <c r="D38">
+        <v>90</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" t="s">
+        <v>241</v>
+      </c>
+      <c r="D39">
+        <v>90</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" t="s">
+        <v>239</v>
+      </c>
+      <c r="D40" t="s">
+        <v>227</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" t="s">
+        <v>239</v>
+      </c>
+      <c r="D41" t="s">
+        <v>227</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" t="s">
+        <v>239</v>
+      </c>
+      <c r="D42" t="s">
+        <v>227</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" t="s">
+        <v>239</v>
+      </c>
+      <c r="D43" t="s">
+        <v>227</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2260,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2318,155 +4287,167 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C15" t="s">
         <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>153</v>
+        <v>185</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" t="s">
+        <v>202</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C19" s="7" t="s">
-        <v>154</v>
+      <c r="B19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C21" s="8" t="s">
-        <v>156</v>
+        <v>176</v>
+      </c>
+      <c r="E20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C21" s="10" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2481,10 +4462,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2497,10 +4478,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2511,74 +4492,74 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2586,7 +4567,15 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
+        <v>133</v>
+      </c>
+      <c r="E9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2598,15 +4587,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -2614,10 +4603,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2625,7 +4614,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4" t="str">
         <f>PERSON!B2</f>
@@ -2638,18 +4627,18 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B4" s="3" t="str">
         <f>SCHEDULE!B2</f>
@@ -2662,24 +4651,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>141</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2687,50 +4676,66 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="E9" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="F9" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>137</v>
+      </c>
+      <c r="E10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2741,10 +4746,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2757,10 +4762,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2771,21 +4776,21 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2832,60 +4837,82 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
+      <c r="B11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" t="s">
+        <v>179</v>
+      </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="F11" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" t="s">
+        <v>210</v>
+      </c>
       <c r="F12" t="s">
-        <v>171</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2896,10 +4923,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2907,12 +4934,15 @@
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2920,15 +4950,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B3" s="3" t="str">
         <f>ORGANIZATION!B2</f>
@@ -2942,18 +4972,18 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B5" s="3" t="str">
         <f>VACCINE!B2</f>
@@ -2966,140 +4996,157 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="B17" s="8" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>174</v>
-      </c>
-      <c r="B17" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>180</v>
+      <c r="C17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3111,26 +5158,31 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4" t="str">
         <f>PERSON!B2</f>
@@ -3141,9 +5193,9 @@
         <v>Mã định danh cá nhân 12 chữ số</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B3" s="4" t="str">
         <f>SCHEDULE!B2</f>
@@ -3154,56 +5206,129 @@
         <v>Mã lịch tiêm tạo thành từ ID đvtc + các số ngày tháng năm viết liền nhau, 2 ký tự còn lại là chữ số để phân biệt các lịch tiêm trong cùng ngày của đơn vị</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
       <c r="C5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
-        <v>36</v>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3214,26 +5339,31 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4" t="str">
         <f>PERSON!B2</f>
@@ -3244,37 +5374,79 @@
         <v>Mã định danh cá nhân 12 chữ số</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
-        <v>36</v>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>234</v>
+      </c>
+      <c r="F9" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3285,10 +5457,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3297,14 +5469,17 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4" t="str">
         <f>PERSON!B2</f>
@@ -3315,65 +5490,101 @@
         <v>Mã định danh cá nhân 12 chữ số</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3384,21 +5595,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100A30F3884CD43244294355762AE14FDC0" ma:contentTypeVersion="13" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="d6abdbf5296efb927e779bc42333b79d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c8b53866-fdfd-416a-aee2-e50c3ae941dd" xmlns:ns4="9d433cf1-fba1-428a-9634-baf48b90bf9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cbc3d42f92fe2e49d2b946bcae330cb" ns3:_="" ns4:_="">
     <xsd:import namespace="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
@@ -3621,32 +5817,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A7B083-9D0F-4795-94A6-C1128A2A5DD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3663,4 +5849,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DB Scripts/Components Detail.xlsx
+++ b/DB Scripts/Components Detail.xlsx
@@ -24,7 +24,7 @@
     <sheet name="ANNOUCEMENT" sheetId="13" r:id="rId10"/>
     <sheet name="PARAMETER" sheetId="14" r:id="rId11"/>
     <sheet name="Vaccine Combination" sheetId="2" r:id="rId12"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId13"/>
+    <sheet name="Insert Values" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -3318,7 +3318,7 @@
   <dimension ref="A2:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5595,6 +5595,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100A30F3884CD43244294355762AE14FDC0" ma:contentTypeVersion="13" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="d6abdbf5296efb927e779bc42333b79d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c8b53866-fdfd-416a-aee2-e50c3ae941dd" xmlns:ns4="9d433cf1-fba1-428a-9634-baf48b90bf9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cbc3d42f92fe2e49d2b946bcae330cb" ns3:_="" ns4:_="">
     <xsd:import namespace="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
@@ -5817,15 +5826,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5833,6 +5833,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A7B083-9D0F-4795-94A6-C1128A2A5DD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5847,14 +5855,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/DB Scripts/Components Detail.xlsx
+++ b/DB Scripts/Components Detail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="729" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="729" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="10" r:id="rId1"/>
@@ -639,7 +639,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="244">
   <si>
     <t>PERSON</t>
   </si>
@@ -1366,6 +1366,12 @@
   </si>
   <si>
     <t>booster</t>
+  </si>
+  <si>
+    <t>PARAMETER</t>
+  </si>
+  <si>
+    <t>nttnntt</t>
   </si>
 </sst>
 </file>
@@ -1921,7 +1927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -2186,10 +2192,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:G58"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2206,6 +2212,9 @@
       <c r="A1" s="1" t="s">
         <v>236</v>
       </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2307,934 +2316,6 @@
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" t="s">
-        <v>231</v>
-      </c>
-      <c r="D17" t="s">
-        <v>226</v>
-      </c>
-      <c r="E17" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" t="s">
-        <v>240</v>
-      </c>
-      <c r="D18">
-        <v>56</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" t="s">
-        <v>240</v>
-      </c>
-      <c r="D19">
-        <v>28</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" t="s">
-        <v>240</v>
-      </c>
-      <c r="D20">
-        <v>28</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" t="s">
-        <v>240</v>
-      </c>
-      <c r="D21">
-        <v>28</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>110</v>
-      </c>
-      <c r="G21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" t="s">
-        <v>240</v>
-      </c>
-      <c r="D22">
-        <v>28</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" t="s">
-        <v>241</v>
-      </c>
-      <c r="D23">
-        <v>90</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>110</v>
-      </c>
-      <c r="G23" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" t="s">
-        <v>241</v>
-      </c>
-      <c r="D24">
-        <v>90</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" t="s">
-        <v>239</v>
-      </c>
-      <c r="D25" t="s">
-        <v>227</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" t="s">
-        <v>239</v>
-      </c>
-      <c r="D26" t="s">
-        <v>227</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" t="s">
-        <v>239</v>
-      </c>
-      <c r="D27" t="s">
-        <v>227</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" t="s">
-        <v>239</v>
-      </c>
-      <c r="D28" t="s">
-        <v>227</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" t="s">
-        <v>240</v>
-      </c>
-      <c r="D29">
-        <v>21</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>103</v>
-      </c>
-      <c r="G29" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" t="s">
-        <v>240</v>
-      </c>
-      <c r="D30">
-        <v>28</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>111</v>
-      </c>
-      <c r="G30" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>3</v>
-      </c>
-      <c r="B31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" t="s">
-        <v>241</v>
-      </c>
-      <c r="D31">
-        <v>90</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" t="s">
-        <v>114</v>
-      </c>
-      <c r="G31" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>3</v>
-      </c>
-      <c r="B32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" t="s">
-        <v>241</v>
-      </c>
-      <c r="D32">
-        <v>90</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G32" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>4</v>
-      </c>
-      <c r="B33" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" t="s">
-        <v>239</v>
-      </c>
-      <c r="D33" t="s">
-        <v>227</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>4</v>
-      </c>
-      <c r="B34" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" t="s">
-        <v>239</v>
-      </c>
-      <c r="D34" t="s">
-        <v>227</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" t="s">
-        <v>240</v>
-      </c>
-      <c r="D35">
-        <v>21</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>2</v>
-      </c>
-      <c r="B36" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" t="s">
-        <v>240</v>
-      </c>
-      <c r="D36">
-        <v>28</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>3</v>
-      </c>
-      <c r="B37" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" t="s">
-        <v>241</v>
-      </c>
-      <c r="D37">
-        <v>90</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>3</v>
-      </c>
-      <c r="B38" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" t="s">
-        <v>241</v>
-      </c>
-      <c r="D38">
-        <v>90</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>4</v>
-      </c>
-      <c r="B39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" t="s">
-        <v>239</v>
-      </c>
-      <c r="D39" t="s">
-        <v>227</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>4</v>
-      </c>
-      <c r="B40" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" t="s">
-        <v>239</v>
-      </c>
-      <c r="D40" t="s">
-        <v>227</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" t="s">
-        <v>240</v>
-      </c>
-      <c r="D41">
-        <v>21</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>2</v>
-      </c>
-      <c r="B42" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" t="s">
-        <v>240</v>
-      </c>
-      <c r="D42">
-        <v>28</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>2</v>
-      </c>
-      <c r="B43" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" t="s">
-        <v>240</v>
-      </c>
-      <c r="D43">
-        <v>28</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>3</v>
-      </c>
-      <c r="B44" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" t="s">
-        <v>241</v>
-      </c>
-      <c r="D44">
-        <v>90</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>3</v>
-      </c>
-      <c r="B45" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" t="s">
-        <v>241</v>
-      </c>
-      <c r="D45">
-        <v>90</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>3</v>
-      </c>
-      <c r="B46" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" t="s">
-        <v>239</v>
-      </c>
-      <c r="D46" t="s">
-        <v>227</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>3</v>
-      </c>
-      <c r="B47" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" t="s">
-        <v>239</v>
-      </c>
-      <c r="D47" t="s">
-        <v>227</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>4</v>
-      </c>
-      <c r="B48" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" t="s">
-        <v>239</v>
-      </c>
-      <c r="D48" t="s">
-        <v>227</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>4</v>
-      </c>
-      <c r="B49" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" t="s">
-        <v>239</v>
-      </c>
-      <c r="D49" t="s">
-        <v>227</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" t="s">
-        <v>240</v>
-      </c>
-      <c r="D50">
-        <v>28</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>2</v>
-      </c>
-      <c r="B51" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" t="s">
-        <v>240</v>
-      </c>
-      <c r="D51">
-        <v>28</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>2</v>
-      </c>
-      <c r="B52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" t="s">
-        <v>240</v>
-      </c>
-      <c r="D52">
-        <v>28</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>3</v>
-      </c>
-      <c r="B53" t="s">
-        <v>106</v>
-      </c>
-      <c r="C53" t="s">
-        <v>241</v>
-      </c>
-      <c r="D53">
-        <v>90</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>3</v>
-      </c>
-      <c r="B54" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54" t="s">
-        <v>241</v>
-      </c>
-      <c r="D54">
-        <v>90</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>3</v>
-      </c>
-      <c r="B55" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" t="s">
-        <v>239</v>
-      </c>
-      <c r="D55" t="s">
-        <v>227</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>3</v>
-      </c>
-      <c r="B56" t="s">
-        <v>106</v>
-      </c>
-      <c r="C56" t="s">
-        <v>239</v>
-      </c>
-      <c r="D56" t="s">
-        <v>227</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>4</v>
-      </c>
-      <c r="B57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C57" t="s">
-        <v>239</v>
-      </c>
-      <c r="D57" t="s">
-        <v>227</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>4</v>
-      </c>
-      <c r="B58" t="s">
-        <v>106</v>
-      </c>
-      <c r="C58" t="s">
-        <v>239</v>
-      </c>
-      <c r="D58" t="s">
-        <v>227</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>121</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3315,14 +2396,22 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G43"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" t="s">
+        <v>243</v>
+      </c>
+    </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>99</v>
@@ -5460,7 +4549,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5595,15 +4684,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100A30F3884CD43244294355762AE14FDC0" ma:contentTypeVersion="13" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="d6abdbf5296efb927e779bc42333b79d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c8b53866-fdfd-416a-aee2-e50c3ae941dd" xmlns:ns4="9d433cf1-fba1-428a-9634-baf48b90bf9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cbc3d42f92fe2e49d2b946bcae330cb" ns3:_="" ns4:_="">
     <xsd:import namespace="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
@@ -5826,6 +4906,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5833,14 +4922,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A7B083-9D0F-4795-94A6-C1128A2A5DD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5855,6 +4936,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/DB Scripts/Components Detail.xlsx
+++ b/DB Scripts/Components Detail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="729" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="729"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="10" r:id="rId1"/>
@@ -23,8 +23,9 @@
     <sheet name="HEALTH" sheetId="9" r:id="rId9"/>
     <sheet name="ANNOUCEMENT" sheetId="13" r:id="rId10"/>
     <sheet name="PARAMETER" sheetId="14" r:id="rId11"/>
-    <sheet name="Vaccine Combination" sheetId="2" r:id="rId12"/>
-    <sheet name="Insert Values" sheetId="15" r:id="rId13"/>
+    <sheet name="STATISTIC" sheetId="17" r:id="rId12"/>
+    <sheet name="Vaccine Combination" sheetId="2" r:id="rId13"/>
+    <sheet name="Insert Values" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +42,7 @@
     <author>operator</author>
   </authors>
   <commentList>
-    <comment ref="E9" authorId="0" shapeId="0">
+    <comment ref="E10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -639,7 +640,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="248">
   <si>
     <t>PERSON</t>
   </si>
@@ -1372,6 +1373,18 @@
   </si>
   <si>
     <t>nttnntt</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>THONG KE MUI CO BAN</t>
+  </si>
+  <si>
+    <t>STATISTIC</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -1925,10 +1938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1978,75 +1991,83 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>188</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2062,12 +2083,12 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2194,8 +2215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2324,6 +2345,46 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3">
+        <v>170000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A17:B22"/>
   <sheetViews>
@@ -2394,7 +2455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
@@ -3297,8 +3358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3679,7 +3740,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,8 +4609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4907,18 +4968,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4941,14 +5002,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -4963,4 +5016,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DB Scripts/Components Detail.xlsx
+++ b/DB Scripts/Components Detail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="729"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="729" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="10" r:id="rId1"/>
@@ -640,7 +640,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="261">
   <si>
     <t>PERSON</t>
   </si>
@@ -1378,13 +1378,52 @@
     <t>DATA</t>
   </si>
   <si>
-    <t>THONG KE MUI CO BAN</t>
-  </si>
-  <si>
     <t>STATISTIC</t>
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>BasicDose_National</t>
+  </si>
+  <si>
+    <t>BoosterDose_National</t>
+  </si>
+  <si>
+    <t>RepeatDose_National</t>
+  </si>
+  <si>
+    <t>Children_National</t>
+  </si>
+  <si>
+    <t>Teenager_National</t>
+  </si>
+  <si>
+    <t>Adult_National</t>
+  </si>
+  <si>
+    <t>OldPeople_National</t>
+  </si>
+  <si>
+    <t>Affected_Children_National</t>
+  </si>
+  <si>
+    <t>Affected_Teenager_National</t>
+  </si>
+  <si>
+    <t>Affected_Adult_National</t>
+  </si>
+  <si>
+    <t>Affected_OldPeople_National</t>
+  </si>
+  <si>
+    <t>Users_National</t>
+  </si>
+  <si>
+    <t>ProvinceName_Dose</t>
+  </si>
+  <si>
+    <t>ProvinceName_Affected</t>
   </si>
 </sst>
 </file>
@@ -1940,8 +1979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1993,7 +2032,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -2346,21 +2385,21 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>246</v>
+      <c r="A1" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2373,14 +2412,77 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B3">
-        <v>170000000</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/DB Scripts/Components Detail.xlsx
+++ b/DB Scripts/Components Detail.xlsx
@@ -640,7 +640,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="288">
   <si>
     <t>PERSON</t>
   </si>
@@ -1378,12 +1378,6 @@
     <t>DATA</t>
   </si>
   <si>
-    <t>STATISTIC</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>BasicDose_National</t>
   </si>
   <si>
@@ -1424,6 +1418,93 @@
   </si>
   <si>
     <t>ProvinceName_Affected</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>BasicDose_National &gt;= 0</t>
+  </si>
+  <si>
+    <t>BoosterDose_National &gt;= 0</t>
+  </si>
+  <si>
+    <t>RepeatDose_National &gt;= 0</t>
+  </si>
+  <si>
+    <t>Children_National &gt;= 0</t>
+  </si>
+  <si>
+    <t>Teenager_National &gt;= 0</t>
+  </si>
+  <si>
+    <t>Adult_National &gt;= 0</t>
+  </si>
+  <si>
+    <t>OldPeople_National &gt;= 0</t>
+  </si>
+  <si>
+    <t>Affected_Children_National &gt;= 0</t>
+  </si>
+  <si>
+    <t>Affected_Teenager_National &gt;= 0</t>
+  </si>
+  <si>
+    <t>Affected_Adult_National &gt;= 0</t>
+  </si>
+  <si>
+    <t>Affected_OldPeople_National &gt;= 0</t>
+  </si>
+  <si>
+    <t>Users_National &gt;= 0</t>
+  </si>
+  <si>
+    <t>ProvinceName_Dose &gt;= 0</t>
+  </si>
+  <si>
+    <t>ProvinceName_Affected &gt;= 0</t>
+  </si>
+  <si>
+    <t>STATISTIC (STAT)</t>
+  </si>
+  <si>
+    <t>UPDATE_BASICDOSE()</t>
+  </si>
+  <si>
+    <t>UPDATE_BOOSTERDOSE()</t>
+  </si>
+  <si>
+    <t>UPDATE_REPEATDOSE()</t>
+  </si>
+  <si>
+    <t>UPDATE_CHILDREN()</t>
+  </si>
+  <si>
+    <t>UPDATE_TEENAGER()</t>
+  </si>
+  <si>
+    <t>UPDATE_ADULT()</t>
+  </si>
+  <si>
+    <t>UPDATE_OLDPEOPLE()</t>
+  </si>
+  <si>
+    <t>UPDATE_AFFECTED_CHILDREN()</t>
+  </si>
+  <si>
+    <t>UPDATE_AFFECTED_TEENAGER()</t>
+  </si>
+  <si>
+    <t>UPDATE_AFFECTED_ADULT()</t>
+  </si>
+  <si>
+    <t>UPDATE_AFFECTED_OLDPEOPLE()</t>
+  </si>
+  <si>
+    <t>UPDATE_USERS()</t>
+  </si>
+  <si>
+    <t>UPDATE_PROVINCENAME()</t>
   </si>
 </sst>
 </file>
@@ -1979,8 +2060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2032,7 +2113,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -2122,7 +2203,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2152,7 +2233,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>95</v>
@@ -2255,12 +2336,12 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="A9" sqref="A9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -2385,99 +2466,300 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>91</v>
       </c>
       <c r="B2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E7" t="str">
+        <f>"number "&amp;"STAT_"&amp;UPPER(LEFT(C7,LEN(C7)-LEN("_National &gt;= 0"))&amp;"()")</f>
+        <v>number STAT_BASICDOSE()</v>
+      </c>
+      <c r="F7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E8" t="str">
+        <f>"number "&amp;"STAT_"&amp;UPPER(LEFT(C8,LEN(C8)-LEN("_National &gt;= 0"))&amp;"()")</f>
+        <v>number STAT_BOOSTERDOSE()</v>
+      </c>
+      <c r="F8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" ref="E9:E20" si="0">"number "&amp;"STAT_"&amp;UPPER(LEFT(C9,LEN(C9)-LEN("_National &gt;= 0"))&amp;"()")</f>
+        <v>number STAT_REPEATDOSE()</v>
+      </c>
+      <c r="F9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>number STAT_CHILDREN()</v>
+      </c>
+      <c r="F10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>264</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>number STAT_TEENAGER()</v>
+      </c>
+      <c r="F11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>number STAT_ADULT()</v>
+      </c>
+      <c r="F12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>number STAT_OLDPEOPLE()</v>
+      </c>
+      <c r="F13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>267</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>number STAT_AFFECTED_CHILDREN()</v>
+      </c>
+      <c r="F14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>268</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>number STAT_AFFECTED_TEENAGER()</v>
+      </c>
+      <c r="F15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>269</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>number STAT_AFFECTED_ADULT()</v>
+      </c>
+      <c r="F16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>270</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>number STAT_AFFECTED_OLDPEOPLE()</v>
+      </c>
+      <c r="F17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>271</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>number STAT_USERS()</v>
+      </c>
+      <c r="F18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>272</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>number STAT_PROVINCE()</v>
+      </c>
+      <c r="F19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>273</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>number STAT_PROVINCENAME()</v>
+      </c>
+      <c r="F20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3697,7 +3979,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C21" s="10" t="s">
         <v>131</v>
       </c>
@@ -4599,7 +4881,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
@@ -4847,6 +5129,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100A30F3884CD43244294355762AE14FDC0" ma:contentTypeVersion="13" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="d6abdbf5296efb927e779bc42333b79d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c8b53866-fdfd-416a-aee2-e50c3ae941dd" xmlns:ns4="9d433cf1-fba1-428a-9634-baf48b90bf9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cbc3d42f92fe2e49d2b946bcae330cb" ns3:_="" ns4:_="">
     <xsd:import namespace="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
@@ -5069,12 +5357,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5085,6 +5367,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A7B083-9D0F-4795-94A6-C1128A2A5DD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5103,23 +5402,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
   <ds:schemaRefs>

--- a/DB Scripts/Components Detail.xlsx
+++ b/DB Scripts/Components Detail.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="729" firstSheet="2" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="729" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="10" r:id="rId1"/>
-    <sheet name="PERSON" sheetId="1" r:id="rId2"/>
-    <sheet name="VACCINE" sheetId="3" r:id="rId3"/>
+    <sheet name="VACCINE" sheetId="3" r:id="rId2"/>
+    <sheet name="PERSON" sheetId="1" r:id="rId3"/>
     <sheet name="INJECTION" sheetId="4" r:id="rId4"/>
     <sheet name="ORGANIZATION" sheetId="5" r:id="rId5"/>
     <sheet name="SCHEDULE" sheetId="6" r:id="rId6"/>
@@ -24,8 +24,8 @@
     <sheet name="ANNOUCEMENT" sheetId="13" r:id="rId10"/>
     <sheet name="PARAMETER" sheetId="14" r:id="rId11"/>
     <sheet name="STATISTIC" sheetId="17" r:id="rId12"/>
-    <sheet name="Vaccine Combination" sheetId="2" r:id="rId13"/>
-    <sheet name="Insert Values" sheetId="15" r:id="rId14"/>
+    <sheet name="Insert Values" sheetId="15" r:id="rId13"/>
+    <sheet name="Vaccine Combination" sheetId="2" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -98,6 +98,46 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Đặng Nghiệp Cường</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Đặng Nghiệp Cường:
+Stored the info of vaccines managed by MOH.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Đặng Nghiệp Cường:
+The technique used to produce the vaccine.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Đặng Nghiệp Cường</author>
@@ -179,46 +219,6 @@
           </rPr>
           <t xml:space="preserve">
 - Check if a parameter is null, it means the attribute is not changed, then keep the old value.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Đặng Nghiệp Cường</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Đặng Nghiệp Cường:
-Stored the info of vaccines managed by MOH.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Đặng Nghiệp Cường:
-The technique used to produce the vaccine.</t>
         </r>
       </text>
     </comment>
@@ -640,7 +640,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="291">
   <si>
     <t>PERSON</t>
   </si>
@@ -1378,6 +1378,9 @@
     <t>DATA</t>
   </si>
   <si>
+    <t>STATISTIC</t>
+  </si>
+  <si>
     <t>BasicDose_National</t>
   </si>
   <si>
@@ -1505,6 +1508,12 @@
   </si>
   <si>
     <t>UPDATE_PROVINCENAME()</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>tn</t>
   </si>
 </sst>
 </file>
@@ -2466,10 +2475,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2482,7 +2491,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2523,243 +2532,173 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E7" t="str">
         <f>"number "&amp;"STAT_"&amp;UPPER(LEFT(C7,LEN(C7)-LEN("_National &gt;= 0"))&amp;"()")</f>
         <v>number STAT_BASICDOSE()</v>
       </c>
       <c r="F7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E8" t="str">
         <f>"number "&amp;"STAT_"&amp;UPPER(LEFT(C8,LEN(C8)-LEN("_National &gt;= 0"))&amp;"()")</f>
         <v>number STAT_BOOSTERDOSE()</v>
       </c>
       <c r="F8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" ref="E9:E20" si="0">"number "&amp;"STAT_"&amp;UPPER(LEFT(C9,LEN(C9)-LEN("_National &gt;= 0"))&amp;"()")</f>
         <v>number STAT_REPEATDOSE()</v>
       </c>
       <c r="F9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
         <v>number STAT_CHILDREN()</v>
       </c>
       <c r="F10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
         <v>number STAT_TEENAGER()</v>
       </c>
       <c r="F11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
         <v>number STAT_ADULT()</v>
       </c>
       <c r="F12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
         <v>number STAT_OLDPEOPLE()</v>
       </c>
       <c r="F13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
         <v>number STAT_AFFECTED_CHILDREN()</v>
       </c>
       <c r="F14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
         <v>number STAT_AFFECTED_TEENAGER()</v>
       </c>
       <c r="F15" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
         <v>number STAT_AFFECTED_ADULT()</v>
       </c>
       <c r="F16" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
         <v>number STAT_AFFECTED_OLDPEOPLE()</v>
       </c>
       <c r="F17" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
         <v>number STAT_USERS()</v>
       </c>
       <c r="F18" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
         <v>number STAT_PROVINCE()</v>
       </c>
       <c r="F19" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
         <v>number STAT_PROVINCENAME()</v>
       </c>
       <c r="F20" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2769,6 +2708,1036 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A22:G81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" t="s">
+        <v>231</v>
+      </c>
+      <c r="D23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E23" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" t="s">
+        <v>240</v>
+      </c>
+      <c r="D24">
+        <v>56</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" t="s">
+        <v>240</v>
+      </c>
+      <c r="D25">
+        <v>28</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26">
+        <v>28</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27">
+        <v>28</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>240</v>
+      </c>
+      <c r="D28">
+        <v>28</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" t="s">
+        <v>241</v>
+      </c>
+      <c r="D29">
+        <v>90</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" t="s">
+        <v>241</v>
+      </c>
+      <c r="D30">
+        <v>90</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" t="s">
+        <v>239</v>
+      </c>
+      <c r="D31" t="s">
+        <v>227</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>239</v>
+      </c>
+      <c r="D32" t="s">
+        <v>227</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" t="s">
+        <v>227</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" t="s">
+        <v>239</v>
+      </c>
+      <c r="D34" t="s">
+        <v>227</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>240</v>
+      </c>
+      <c r="D35">
+        <v>21</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" t="s">
+        <v>240</v>
+      </c>
+      <c r="D36">
+        <v>28</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" t="s">
+        <v>241</v>
+      </c>
+      <c r="D37">
+        <v>90</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>114</v>
+      </c>
+      <c r="G37" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" t="s">
+        <v>241</v>
+      </c>
+      <c r="D38">
+        <v>90</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" t="s">
+        <v>239</v>
+      </c>
+      <c r="D39" t="s">
+        <v>227</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" t="s">
+        <v>239</v>
+      </c>
+      <c r="D40" t="s">
+        <v>227</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" t="s">
+        <v>240</v>
+      </c>
+      <c r="D41">
+        <v>21</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" t="s">
+        <v>240</v>
+      </c>
+      <c r="D42">
+        <v>28</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" t="s">
+        <v>241</v>
+      </c>
+      <c r="D43">
+        <v>90</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D44">
+        <v>90</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" t="s">
+        <v>239</v>
+      </c>
+      <c r="D45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" t="s">
+        <v>239</v>
+      </c>
+      <c r="D46" t="s">
+        <v>227</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" t="s">
+        <v>240</v>
+      </c>
+      <c r="D47">
+        <v>21</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" t="s">
+        <v>240</v>
+      </c>
+      <c r="D48">
+        <v>28</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" t="s">
+        <v>240</v>
+      </c>
+      <c r="D49">
+        <v>28</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" t="s">
+        <v>241</v>
+      </c>
+      <c r="D50">
+        <v>90</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s">
+        <v>241</v>
+      </c>
+      <c r="D51">
+        <v>90</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="s">
+        <v>239</v>
+      </c>
+      <c r="D52" t="s">
+        <v>227</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
+        <v>239</v>
+      </c>
+      <c r="D53" t="s">
+        <v>227</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" t="s">
+        <v>239</v>
+      </c>
+      <c r="D54" t="s">
+        <v>227</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" t="s">
+        <v>239</v>
+      </c>
+      <c r="D55" t="s">
+        <v>227</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" t="s">
+        <v>240</v>
+      </c>
+      <c r="D56">
+        <v>28</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" t="s">
+        <v>240</v>
+      </c>
+      <c r="D57">
+        <v>28</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" t="s">
+        <v>240</v>
+      </c>
+      <c r="D58">
+        <v>28</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" t="s">
+        <v>241</v>
+      </c>
+      <c r="D59">
+        <v>90</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" t="s">
+        <v>241</v>
+      </c>
+      <c r="D60">
+        <v>90</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" t="s">
+        <v>239</v>
+      </c>
+      <c r="D61" t="s">
+        <v>227</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" t="s">
+        <v>239</v>
+      </c>
+      <c r="D62" t="s">
+        <v>227</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" t="s">
+        <v>239</v>
+      </c>
+      <c r="D63" t="s">
+        <v>227</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" t="s">
+        <v>239</v>
+      </c>
+      <c r="D64" t="s">
+        <v>227</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>245</v>
+      </c>
+      <c r="B66" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>260</v>
+      </c>
+      <c r="B67" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>246</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>247</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>248</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>249</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>250</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>251</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>252</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>253</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>254</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>255</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>256</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>257</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>258</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>259</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A17:B22"/>
   <sheetViews>
@@ -2839,906 +3808,132 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G43"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>242</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" t="s">
-        <v>100</v>
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D3">
-        <v>56</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D4">
-        <v>28</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D5">
-        <v>28</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D6">
-        <v>28</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" t="s">
-        <v>240</v>
-      </c>
-      <c r="D7">
-        <v>28</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D8">
-        <v>90</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>102</v>
-      </c>
       <c r="C9" t="s">
-        <v>241</v>
-      </c>
-      <c r="D9">
-        <v>90</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" t="s">
-        <v>239</v>
-      </c>
-      <c r="D10" t="s">
-        <v>227</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" t="s">
-        <v>239</v>
-      </c>
-      <c r="D11" t="s">
-        <v>227</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" t="s">
-        <v>239</v>
-      </c>
-      <c r="D12" t="s">
-        <v>227</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" t="s">
-        <v>239</v>
-      </c>
-      <c r="D13" t="s">
-        <v>227</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" t="s">
-        <v>240</v>
-      </c>
-      <c r="D14">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" t="s">
-        <v>240</v>
-      </c>
-      <c r="D15">
-        <v>28</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>111</v>
-      </c>
-      <c r="G15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" t="s">
-        <v>241</v>
-      </c>
-      <c r="D16">
-        <v>90</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" t="s">
-        <v>241</v>
-      </c>
-      <c r="D17">
-        <v>90</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" t="s">
-        <v>239</v>
-      </c>
-      <c r="D18" t="s">
-        <v>227</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" t="s">
-        <v>239</v>
-      </c>
-      <c r="D19" t="s">
-        <v>227</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" t="s">
-        <v>240</v>
-      </c>
-      <c r="D20">
-        <v>21</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" t="s">
-        <v>240</v>
-      </c>
-      <c r="D21">
-        <v>28</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" t="s">
-        <v>241</v>
-      </c>
-      <c r="D22">
-        <v>90</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" t="s">
-        <v>241</v>
-      </c>
-      <c r="D23">
-        <v>90</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" t="s">
-        <v>239</v>
-      </c>
-      <c r="D24" t="s">
-        <v>227</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" t="s">
-        <v>239</v>
-      </c>
-      <c r="D25" t="s">
-        <v>227</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" t="s">
-        <v>240</v>
-      </c>
-      <c r="D26">
-        <v>21</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" t="s">
-        <v>240</v>
-      </c>
-      <c r="D27">
-        <v>28</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" t="s">
-        <v>240</v>
-      </c>
-      <c r="D28">
-        <v>28</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>3</v>
-      </c>
-      <c r="B29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" t="s">
-        <v>241</v>
-      </c>
-      <c r="D29">
-        <v>90</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>3</v>
-      </c>
-      <c r="B30" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" t="s">
-        <v>241</v>
-      </c>
-      <c r="D30">
-        <v>90</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>3</v>
-      </c>
-      <c r="B31" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" t="s">
-        <v>239</v>
-      </c>
-      <c r="D31" t="s">
-        <v>227</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>3</v>
-      </c>
-      <c r="B32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" t="s">
-        <v>239</v>
-      </c>
-      <c r="D32" t="s">
-        <v>227</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>4</v>
-      </c>
-      <c r="B33" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" t="s">
-        <v>239</v>
-      </c>
-      <c r="D33" t="s">
-        <v>227</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>4</v>
-      </c>
-      <c r="B34" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" t="s">
-        <v>239</v>
-      </c>
-      <c r="D34" t="s">
-        <v>227</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" t="s">
-        <v>240</v>
-      </c>
-      <c r="D35">
-        <v>28</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>2</v>
-      </c>
-      <c r="B36" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" t="s">
-        <v>240</v>
-      </c>
-      <c r="D36">
-        <v>28</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>2</v>
-      </c>
-      <c r="B37" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" t="s">
-        <v>240</v>
-      </c>
-      <c r="D37">
-        <v>28</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>3</v>
-      </c>
-      <c r="B38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" t="s">
-        <v>241</v>
-      </c>
-      <c r="D38">
-        <v>90</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>3</v>
-      </c>
-      <c r="B39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" t="s">
-        <v>241</v>
-      </c>
-      <c r="D39">
-        <v>90</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>3</v>
-      </c>
-      <c r="B40" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" t="s">
-        <v>239</v>
-      </c>
-      <c r="D40" t="s">
-        <v>227</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>3</v>
-      </c>
-      <c r="B41" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" t="s">
-        <v>239</v>
-      </c>
-      <c r="D41" t="s">
-        <v>227</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>4</v>
-      </c>
-      <c r="B42" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" t="s">
-        <v>239</v>
-      </c>
-      <c r="D42" t="s">
-        <v>227</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>4</v>
-      </c>
-      <c r="B43" t="s">
-        <v>106</v>
-      </c>
-      <c r="C43" t="s">
-        <v>239</v>
-      </c>
-      <c r="D43" t="s">
-        <v>227</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43" t="s">
-        <v>227</v>
+        <v>133</v>
+      </c>
+      <c r="E9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
@@ -3986,131 +4181,6 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>206</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4283,7 +4353,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4459,8 +4529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4993,7 +5063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/DB Scripts/Components Detail.xlsx
+++ b/DB Scripts/Components Detail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="729" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="729" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="10" r:id="rId1"/>
@@ -2070,7 +2070,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2477,14 +2477,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A38"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -5063,7 +5063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -5199,12 +5199,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100A30F3884CD43244294355762AE14FDC0" ma:contentTypeVersion="13" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="d6abdbf5296efb927e779bc42333b79d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c8b53866-fdfd-416a-aee2-e50c3ae941dd" xmlns:ns4="9d433cf1-fba1-428a-9634-baf48b90bf9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cbc3d42f92fe2e49d2b946bcae330cb" ns3:_="" ns4:_="">
     <xsd:import namespace="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
@@ -5427,6 +5421,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5437,23 +5437,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A7B083-9D0F-4795-94A6-C1128A2A5DD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5472,6 +5455,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
   <ds:schemaRefs>

--- a/DB Scripts/Components Detail.xlsx
+++ b/DB Scripts/Components Detail.xlsx
@@ -13,8 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="10" r:id="rId1"/>
-    <sheet name="VACCINE" sheetId="3" r:id="rId2"/>
-    <sheet name="PERSON" sheetId="1" r:id="rId3"/>
+    <sheet name="PERSON" sheetId="1" r:id="rId2"/>
+    <sheet name="VACCINE" sheetId="3" r:id="rId3"/>
     <sheet name="INJECTION" sheetId="4" r:id="rId4"/>
     <sheet name="ORGANIZATION" sheetId="5" r:id="rId5"/>
     <sheet name="SCHEDULE" sheetId="6" r:id="rId6"/>
@@ -101,46 +101,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Đặng Nghiệp Cường</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Đặng Nghiệp Cường:
-Stored the info of vaccines managed by MOH.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Đặng Nghiệp Cường:
-The technique used to produce the vaccine.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Đặng Nghiệp Cường</author>
     <author>operator</author>
   </authors>
   <commentList>
@@ -219,6 +179,46 @@
           </rPr>
           <t xml:space="preserve">
 - Check if a parameter is null, it means the attribute is not changed, then keep the old value.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Đặng Nghiệp Cường</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Đặng Nghiệp Cường:
+Stored the info of vaccines managed by MOH.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Đặng Nghiệp Cường:
+The technique used to produce the vaccine.</t>
         </r>
       </text>
     </comment>
@@ -2478,7 +2478,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3810,131 +3810,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -4181,6 +4056,131 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>206</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5199,6 +5199,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100A30F3884CD43244294355762AE14FDC0" ma:contentTypeVersion="13" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="d6abdbf5296efb927e779bc42333b79d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c8b53866-fdfd-416a-aee2-e50c3ae941dd" xmlns:ns4="9d433cf1-fba1-428a-9634-baf48b90bf9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cbc3d42f92fe2e49d2b946bcae330cb" ns3:_="" ns4:_="">
     <xsd:import namespace="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
@@ -5421,12 +5427,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5437,6 +5437,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A7B083-9D0F-4795-94A6-C1128A2A5DD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5455,23 +5472,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
   <ds:schemaRefs>

--- a/DB Scripts/Components Detail.xlsx
+++ b/DB Scripts/Components Detail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="729" firstSheet="2" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="729"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="10" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <author>operator</author>
   </authors>
   <commentList>
-    <comment ref="E10" authorId="0" shapeId="0">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -640,7 +640,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="291">
   <si>
     <t>PERSON</t>
   </si>
@@ -2067,10 +2067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:B8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2106,97 +2106,89 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>132</v>
       </c>
+      <c r="E9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
       <c r="E10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="E12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E14" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2477,7 +2469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -4529,8 +4521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5199,12 +5191,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100A30F3884CD43244294355762AE14FDC0" ma:contentTypeVersion="13" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="d6abdbf5296efb927e779bc42333b79d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c8b53866-fdfd-416a-aee2-e50c3ae941dd" xmlns:ns4="9d433cf1-fba1-428a-9634-baf48b90bf9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cbc3d42f92fe2e49d2b946bcae330cb" ns3:_="" ns4:_="">
     <xsd:import namespace="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
@@ -5427,6 +5413,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5437,23 +5429,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A7B083-9D0F-4795-94A6-C1128A2A5DD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5472,6 +5447,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0203D343-F538-49C2-AACC-F77D433EB844}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9d433cf1-fba1-428a-9634-baf48b90bf9f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEDA33A1-F718-434B-8088-40E4E15F457F}">
   <ds:schemaRefs>
